--- a/results/case1/data_case1_cut_off_recipe.xlsx
+++ b/results/case1/data_case1_cut_off_recipe.xlsx
@@ -103,508 +103,508 @@
     <t>alubox (small + wipe)</t>
   </si>
   <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0007172858226427541], ["'autoclave' (unit, DK, None)", 0.0006586479328246033], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7538228575411474e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.099457612298842e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1115364033653215e-05], ["'mixed heating grid' (megajoule, DK, None)", -2.7309243648508662e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003807326774382142], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0420135609640405e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.0470594321143326e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00017353962568480869], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.263378298904284e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0007172858226427541], ["'autoclave' (unit, DK, None)", 0.0006586479328246033], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1637516157516024e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.400280444166292e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.410242689102144e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0001820616243233911], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.691043725538281e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.002052429293135868], ["'autoclave' (unit, DK, None)", 0.001317295865649206], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.96643295172867e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.336894994920358e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1800442182894325e-05], ["'mixed heating grid' (megajoule, DK, None)", -7.813023676720259e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010715985954386823], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.1361573194063354e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.154140517648402e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0004888440160135456], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4973978135173898e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.002052429293135868], ["'autoclave' (unit, DK, None)", 0.001317295865649206], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.278173565497472e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2181763036096e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00021200294788596233], ["'mixed heating grid' (megajoule, DK, None)", -0.0005208682451146839], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4973978135173898e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005598739452283586], ["'mechanical disinfection' (unit, DK, None)", 0.0007262930375047269], ["'autoclave' (unit, DK, None)", 0.0018442142119088894], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.576615679939471e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001801031456333495], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2717906806432715e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.843849919786178e-08], ["'steel recycling' (kilogram, RER, None)", 1.1649763736911947e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.5022730244626096e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8659921907792996e-07], ["'mixed heating grid' (megajoule, DK, None)", -4.584540392012511e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005598739452283586], ["'wet wipe' (unit, GLO, None)", 0.00016927094559419925], ["'autoclave' (unit, DK, None)", 0.0018442142119088894], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.576615679939471e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001801031456333495], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2717906806432715e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.843849919786178e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7919175928308264e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.24531792571967e-07], ["'steel recycling' (kilogram, RER, None)", 1.1649763736911947e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.5022730244626096e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0231774512501822e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.9707275257093686e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003316099330383203], ["'mechanical disinfection' (unit, DK, None)", 0.00036314651875236345], ["'autoclave' (unit, DK, None)", 0.0010245634510604941], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.30587181964368e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001067668901624819], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.543581361286543e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6473041574735246e-07], ["'steel recycling' (kilogram, RER, None)", 1.1649763736911947e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.5022730244626096e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.329960953896473e-08], ["'mixed heating grid' (megajoule, DK, None)", -2.2922701960062554e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003316099330383203], ["'wet wipe' (unit, GLO, None)", 0.00016927094559419925], ["'autoclave' (unit, DK, None)", 0.0010245634510604941], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.30587181964368e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001067668901624819], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.543581361286543e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6473041574735246e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7919175928308264e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.24531792571967e-07], ["'steel recycling' (kilogram, RER, None)", 1.1649763736911947e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.5022730244626096e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 2.0138474902962844e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.947804823749305e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.2476010128606068], ["'autoclave' (unit, DK, None)", 0.18669863564806222], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.027294423150080727], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032920532850365745], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0045982963386435325], ["'mixed heating grid' (megajoule, DK, None)", -0.005033827469408784], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.14367684052188906], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0044710099950191], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.004632566240967586], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.06914699383795243], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00020279253820470433]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.2476010128606068], ["'autoclave' (unit, DK, None)", 0.18669863564806222], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.1811125274444609], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.021957089341482477], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.030655308924290216], ["'mixed heating grid' (megajoule, DK, None)", -0.03355884979605856], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00018790802270217088]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.7085726046740395], ["'autoclave' (unit, DK, None)", 0.37339727129612427], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07729168424742487], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009936564502541588], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013155471688927542], ["'mixed heating grid' (megajoule, DK, None)", -0.014401502183369112], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.40438845842253546], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013456437849086612], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.013955048236202219], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.19478026433226042], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005769319362216113]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.7085726046740395], ["'autoclave' (unit, DK, None)", 0.37339727129612427], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5101761336463688], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06614308893789081], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08770314459285035], ["'mixed heating grid' (megajoule, DK, None)", -0.09601001455579407], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005769319362216113]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.12944187989952138], ["'mechanical disinfection' (unit, DK, None)", 0.21668038531414988], ["'autoclave' (unit, DK, None)", 0.5227561798145742], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.005994614151552536], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.04131583810180692], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037487899102933535], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.79273386325887e-05], ["'steel recycling' (kilogram, RER, None)", 4.550273338337034e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0004052921864046901], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.719391855111214e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.45053991862823e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.12944187989952138], ["'wet wipe' (unit, GLO, None)", 0.02877169992142106], ["'autoclave' (unit, DK, None)", 0.5227561798145742], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.005994614151552536], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.04131583810180692], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037487899102933535], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.79273386325887e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015121595041239896], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0144971153836473], ["'steel recycling' (kilogram, RER, None)", 4.550273338337034e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0004052921864046901], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008369648927685415], ["'mixed heating grid' (megajoule, DK, None)", -0.0091623865837927]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0766313453266751], ["'mechanical disinfection' (unit, DK, None)", 0.10834019265707494], ["'autoclave' (unit, DK, None)", 0.29042009989698564], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003553665364558498], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0244924292303404], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579820586707], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.346893046976348e-05], ["'steel recycling' (kilogram, RER, None)", 4.550273338337034e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0004052921864046901], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.859695927555597e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.225269959314115e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0766313453266751], ["'wet wipe' (unit, GLO, None)", 0.02877169992142106], ["'autoclave' (unit, DK, None)", 0.29042009989698564], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003553665364558498], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0244924292303404], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579820586707], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.346893046976348e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015121595041239896], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0144971153836473], ["'steel recycling' (kilogram, RER, None)", 4.550273338337034e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0004052921864046901], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.008331051968409853], ["'mixed heating grid' (megajoule, DK, None)", -0.009120133884199556]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0076389196648151], ["'autoclave' (unit, DK, None)", 0.03740755433685492], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0014328505898690144], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826160280565], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002758004343973126], ["'mixed heating grid' (megajoule, DK, None)", -0.0002218503140177792], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003266895313114911], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005065788022086224], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005799063821932632], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.013163427553948939], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.948169312029842e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0076389196648151], ["'autoclave' (unit, DK, None)", 0.03740755433685492], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009507700175766357], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0011527169374792635], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0018386695626487505], ["'mixed heating grid' (megajoule, DK, None)", -0.0014790020934518614], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.036633784555061e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02185264018957992], ["'autoclave' (unit, DK, None)", 0.07481510867370982], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0040575114834608544], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0005216559455717712], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000789049800034872], ["'mixed heating grid' (megajoule, DK, None)", -0.0006347014873124795], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.009194904026979055], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.001524654647424009], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0017468981801970374], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.03708007761675758], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8301912061755783e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02185264018957992], ["'autoclave' (unit, DK, None)", 0.07481510867370982], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.026782254016243262], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.003472421035872884], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0052603320002324845], ["'mixed heating grid' (megajoule, DK, None)", -0.004231343248749863], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8301912061755783e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.010809142923742684], ["'mechanical disinfection' (unit, DK, None)", 0.044288512401811315], ["'autoclave' (unit, DK, None)", 0.1047411521431938], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.09305409936839011], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02314924600935917], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8972684823886266e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.860559513737227e-06], ["'steel recycling' (kilogram, RER, None)", 1.1090349536415964e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.396913212745372e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.630000918015637e-06], ["'mixed heating grid' (megajoule, DK, None)", -3.7243130519680656e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.010809142923742684], ["'wet wipe' (unit, GLO, None)", 0.0014488295470564518], ["'autoclave' (unit, DK, None)", 0.1047411521431938], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.09305409936839011], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02314924600935917], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8972684823886266e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.860559513737227e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.652613297624742e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007610785832050156], ["'steel recycling' (kilogram, RER, None)", 1.1090349536415964e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.396913212745372e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000502001750215513], ["'mixed heating grid' (megajoule, DK, None)", -0.0004038037364449904]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0064119236787495955], ["'mechanical disinfection' (unit, DK, None)", 0.022144256200905658], ["'autoclave' (unit, DK, None)", 0.05818952896844099], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.055163371919440325], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01372309738030397], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.794536964777253e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.1135251422776945e-06], ["'steel recycling' (kilogram, RER, None)", 1.1090349536415964e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.396913212745372e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3150004590078125e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.8621565259840328e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0064119236787495955], ["'wet wipe' (unit, GLO, None)", 0.0014488295470564518], ["'autoclave' (unit, DK, None)", 0.05818952896844099], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.055163371919440325], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.01372309738030397], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.794536964777253e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.1135251422776945e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.652613297624742e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007610785832050156], ["'steel recycling' (kilogram, RER, None)", 1.1090349536415964e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.396913212745372e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.000499686749756505], ["'mixed heating grid' (megajoule, DK, None)", -0.00040194157991900627]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01007273944774277], ["'autoclave' (unit, DK, None)", 0.047104838724181565], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0020748014169577745], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0025026119633767526], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00035968300718911965], ["'mixed heating grid' (megajoule, DK, None)", -0.0003029343400278215], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004353720453573687], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0006797363983390268], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0007721343834994037], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.01732673658279837], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3407924815517702e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01007273944774277], ["'autoclave' (unit, DK, None)", 0.047104838724181565], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013767373888224483], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0016691733003439443], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002397886714594131], ["'mixed heating grid' (megajoule, DK, None)", -0.002019562266852143], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.4091862880115261e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02881605884566544], ["'autoclave' (unit, DK, None)", 0.0942096774483631], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00587537223680566], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007553755375696804], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010290332048196432], ["'mixed heating grid' (megajoule, DK, None)", -0.0008666784044230555], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.012253848958733887], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.002045808577525226], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0023259618980243386], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04880770868393908], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.8144697497311433e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02881605884566544], ["'autoclave' (unit, DK, None)", 0.0942096774483631], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.038781334896407005], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005028183669536778], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006860221365464293], ["'mixed heating grid' (megajoule, DK, None)", -0.0057778560294870366], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.8144697497311433e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.01372949688634532], ["'mechanical disinfection' (unit, DK, None)", 0.0557028531650895], ["'autoclave' (unit, DK, None)", 0.1318935484277084], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.11130735035724201], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02795083844124139], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5265703205867244e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.5076213816363804e-06], ["'steel recycling' (kilogram, RER, None)", 1.6246278661082263e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.9747419791630815e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.038179951091752e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.085511469524137e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.01372949688634532], ["'wet wipe' (unit, GLO, None)", 0.0014449094599728494], ["'autoclave' (unit, DK, None)", 0.1318935484277084], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.11130735035724201], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02795083844124139], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5265703205867244e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.5076213816363804e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.8488878043834317e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001102067653597102], ["'steel recycling' (kilogram, RER, None)", 1.6246278661082263e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.9747419791630815e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006546817068156019], ["'mixed heating grid' (megajoule, DK, None)", -0.000551389881697117]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.008146978581123608], ["'mechanical disinfection' (unit, DK, None)", 0.02785142658254475], ["'autoclave' (unit, DK, None)", 0.07327419357094911], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.06598407600310126], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.016569527907527623], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.053140641173449e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.196341026122471e-06], ["'steel recycling' (kilogram, RER, None)", 1.6246278661082263e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.9747419791630815e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.019089975545868e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.5427557347620685e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.008146978581123608], ["'wet wipe' (unit, GLO, None)", 0.0014449094599728494], ["'autoclave' (unit, DK, None)", 0.07327419357094911], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.06598407600310126], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.016569527907527623], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.053140641173449e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.196341026122471e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.8488878043834317e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.001102067653597102], ["'steel recycling' (kilogram, RER, None)", 1.6246278661082263e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.9747419791630815e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0006516626168400556], ["'mixed heating grid' (megajoule, DK, None)", -0.0005488471259623548]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.673579678486306], ["'autoclave' (unit, DK, None)", 1.9488663328769333], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07982228999814205], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096302950107], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013779096694242274], ["'mixed heating grid' (megajoule, DK, None)", -0.0392340813536936], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3098276614576935], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.038297132828039156], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.034201980188608476], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.49064373414831797], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005649494448996186]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.673579678486306], ["'autoclave' (unit, DK, None)", 1.9488663328769333], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.529661924286737], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0642100826811443], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.09186064462828183], ["'mixed heating grid' (megajoule, DK, None)", -0.26156054235795734], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0006806823970209596]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.926021800680672], ["'autoclave' (unit, DK, None)", 3.8977326657538653], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.226038821209692], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02905793287771179], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03942123410723306], ["'mixed heating grid' (megajoule, DK, None)", -0.11224653838683543], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.8720314974802633], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.11526321530769065], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.10302934884876555], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.38209502576991], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001607245414445434]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.926021800680672], ["'autoclave' (unit, DK, None)", 3.8977326657538653], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4920054205260198], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.19342514590330948], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.26280822738155396], ["'mixed heating grid' (megajoule, DK, None)", -0.7483102559122361], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.001607245414445434]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.32969451836452046], ["'mechanical disinfection' (unit, DK, None)", 2.27632835960981], ["'autoclave' (unit, DK, None)", 5.456825732055414], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.38051473495018], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09413248668937765], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001995783100419094], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00010565984871382108], ["'steel recycling' (kilogram, RER, None)", 0.00010347067796186428], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.012405241104788195], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002313166419885436], ["'mixed heating grid' (megajoule, DK, None)", -0.0006586423008435672]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.32969451836452046], ["'wet wipe' (unit, GLO, None)", 0.07598228203768984], ["'autoclave' (unit, DK, None)", 5.456825732055414], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.38051473495018], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09413248668937765], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001995783100419094], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00010565984871382108], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00028395414583981], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04239455252675276], ["'steel recycling' (kilogram, RER, None)", 0.00010347067796186428], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.012405241104788195], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.025080202183197915], ["'mixed heating grid' (megajoule, DK, None)", -0.07141242380814726]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.20036231417895106], ["'mechanical disinfection' (unit, DK, None)", 1.138164179804905], ["'autoclave' (unit, DK, None)", 3.0315698511418963], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.22557282255546032], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.055802650374281317], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003991566200838188], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00017681487373598823], ["'steel recycling' (kilogram, RER, None)", 0.00010347067796186428], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.012405241104788195], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001156583209942715], ["'mixed heating grid' (megajoule, DK, None)", -0.0003293211504217836]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.20036231417895106], ["'wet wipe' (unit, GLO, None)", 0.07598228203768984], ["'autoclave' (unit, DK, None)", 3.0315698511418963], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.22557282255546032], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.055802650374281317], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003991566200838188], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00017681487373598823], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00028395414583981], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04239455252675276], ["'steel recycling' (kilogram, RER, None)", 0.00010347067796186428], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.012405241104788195], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.024964543862203627], ["'mixed heating grid' (megajoule, DK, None)", -0.07108310265772547]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1497433289885084], ["'autoclave' (unit, DK, None)", 0.04804806109566909], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.64629847379345e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4312213123494944e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012072278895031803], ["'mixed heating grid' (megajoule, DK, None)", -0.0014855889946351088], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10347569844617766], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0010552396970558767], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0010452896062974522], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.019491736298915287], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.510227933446564e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.1497433289885084], ["'autoclave' (unit, DK, None)", 0.04804806109566909], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003083057865788177], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.622475132181727e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008048185930021202], ["'mixed heating grid' (megajoule, DK, None)", -0.009903926630900726], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.6527921745235785e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4284085117278474], ["'autoclave' (unit, DK, None)", 0.09609612219133813], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00013157275117377714], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6393319373972327e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0034538122715091954], ["'mixed heating grid' (megajoule, DK, None)", -0.004250188008994162], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.2912395486067914], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.003175964136770114], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.003148809130387098], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.054906299433564204], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00012831313013191332]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4284085117278474], ["'autoclave' (unit, DK, None)", 0.09609612219133813], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008684670044473739], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010912270343160911], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023025415143394654], ["'mixed heating grid' (megajoule, DK, None)", -0.02833458672662775], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00012831313013191332]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.029336711428646526], ["'mechanical disinfection' (unit, DK, None)", 0.056087889870442866], ["'autoclave' (unit, DK, None)", 0.13453457106787345], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0013873994593227308], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.008807726181831206], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391610101336886e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.435268065401644e-06], ["'steel recycling' (kilogram, RER, None)", 1.0320653787335902e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -9.503430651558007e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0266343121859378e-05], ["'mixed heating grid' (megajoule, DK, None)", -2.493933131028271e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.029336711428646526], ["'wet wipe' (unit, GLO, None)", 0.014094132048867758], ["'autoclave' (unit, DK, None)", 0.13453457106787345], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0013873994593227308], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.008807726181831206], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391610101336886e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.435268065401644e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.353359488268136e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.391730486172254e-05], ["'steel recycling' (kilogram, RER, None)", 1.0320653787335902e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -9.503430651558007e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0021973515551702905], ["'mixed heating grid' (megajoule, DK, None)", -0.0027040141435505857]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.017302961586453964], ["'mechanical disinfection' (unit, DK, None)", 0.028043944935221433], ["'autoclave' (unit, DK, None)", 0.07474142837104081], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0008224638451709974], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005221305438779969], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4783220202673773e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4115871601831179e-05], ["'steel recycling' (kilogram, RER, None)", 1.0320653787335902e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -9.503430651558007e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0133171560929662e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.2469665655141354e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.017302961586453964], ["'wet wipe' (unit, GLO, None)", 0.014094132048867758], ["'autoclave' (unit, DK, None)", 0.07474142837104081], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0008224638451709974], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.005221305438779969], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4783220202673773e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4115871601831179e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.353359488268136e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.391730486172254e-05], ["'steel recycling' (kilogram, RER, None)", 1.0320653787335902e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -9.503430651558007e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0021872183836093594], ["'mixed heating grid' (megajoule, DK, None)", -0.002691544477895444]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.476664513237117e-05], ["'autoclave' (unit, DK, None)", 0.00018273493342377148], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5320849669986326e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8347568926785117e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.6073178208805556e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.414161204562737e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3474699814025318e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.4682888000260355e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6547066695975404e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.9720932528568244e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.44352678416452e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 5.476664513237117e-05], ["'autoclave' (unit, DK, None)", 0.00018273493342377148], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6801685295037656e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8907048265846588e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4048785472537037e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.42774136375158e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.3705362259321535e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.000157028712696941], ["'autoclave' (unit, DK, None)", 0.00036546986684754285], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.170296682248465e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.55628456597459e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0320336918424259e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.045837049226106e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.607117497325007e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.41912163114632e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.984604685582686e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.372093670019226e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.951679047354125e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.000157028712696941], ["'autoclave' (unit, DK, None)", 0.00036546986684754285], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.7328690971937066e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.6955207293265503e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.880224612282844e-05], ["'mixed heating grid' (megajoule, DK, None)", -2.6972246994840703e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.951679047354125e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.767048848853189e-05], ["'mechanical disinfection' (unit, DK, None)", 0.00020048906606673082], ["'autoclave' (unit, DK, None)", 0.0005116578135865602], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.871455842334105e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3061709620177695e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.115567228330529e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.570013700763391e-09], ["'steel recycling' (kilogram, RER, None)", 2.7640493684860743e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.382526717408072e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.0557862639878e-08], ["'mixed heating grid' (megajoule, DK, None)", -2.37402369929384e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 4.767048848853189e-05], ["'wet wipe' (unit, GLO, None)", 1.4262808581576666e-05], ["'autoclave' (unit, DK, None)", 0.0005116578135865602], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.871455842334105e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3061709620177695e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.115567228330529e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.570013700763391e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9106681078782565e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2483333105373261e-08], ["'steel recycling' (kilogram, RER, None)", 2.7640493684860743e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.382526717408072e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.565906480977229e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.5740039218164813e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.8211184637548867e-05], ["'mechanical disinfection' (unit, DK, None)", 0.00010024453303336541], ["'autoclave' (unit, DK, None)", 0.0002842543408814223], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.4806559252914565e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.743108047600454e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231134456661057e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.64762022005921e-09], ["'steel recycling' (kilogram, RER, None)", 2.7640493684860743e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.382526717408072e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.027893131993892e-08], ["'mixed heating grid' (megajoule, DK, None)", -1.18701184964692e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.8211184637548867e-05], ["'wet wipe' (unit, GLO, None)", 1.4262808581576666e-05], ["'autoclave' (unit, DK, None)", 0.0002842543408814223], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.4806559252914565e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.743108047600454e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231134456661057e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.64762022005921e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9106681078782565e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2483333105373261e-08], ["'steel recycling' (kilogram, RER, None)", 2.7640493684860743e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.382526717408072e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.535627549657285e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.562133803320012e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 7.737268595788349e-06], ["'autoclave' (unit, DK, None)", 0.00012639039224513455], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.28020554786901e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.1371345845197385e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6222969148653173e-07], ["'mixed heating grid' (megajoule, DK, None)", -2.6275232876870108e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3440343093049287e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.270238701599296e-07], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.0717596883647552e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.293265243478429e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.552515732258381e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 7.737268595788349e-06], ["'autoclave' (unit, DK, None)", 0.00012639039224513455], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8401363915766325e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4263273788494035e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7481979432435447e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.7516821917913405e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 7.676274714763836e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.24180663397927e-05], ["'autoclave' (unit, DK, None)", 0.000252780784490269], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.212058206546084e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.550566310373389e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.50224654586948e-07], ["'mixed heating grid' (megajoule, DK, None)", -7.5171989096642525e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.597447559301952e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7900718422289144e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.228547066738396e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.64300068585473e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2951619124367988e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.24180663397927e-05], ["'autoclave' (unit, DK, None)", 0.000252780784490269], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.000384201624318e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0321398844126814e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.001497697246324e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.0114659397761676e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2951619124367988e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.420704495659879e-06], ["'mechanical disinfection' (unit, DK, None)", 8.837238695877519e-05], ["'autoclave' (unit, DK, None)", 0.0003538930982863768], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.9994446336762682e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0142170187202311e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3834715890151347e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.514356954951592e-09], ["'steel recycling' (kilogram, RER, None)", 1.961300297736393e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.43254535232642e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.402182016017265e-09], ["'mixed heating grid' (megajoule, DK, None)", -4.410955791524615e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.420704495659879e-06], ["'wet wipe' (unit, GLO, None)", 8.66246378988002e-05], ["'autoclave' (unit, DK, None)", 0.0003538930982863768], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.9994446336762682e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0142170187202311e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3834715890151347e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.514356954951592e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.664249963572818e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2622244041921782e-08], ["'steel recycling' (kilogram, RER, None)", 1.961300297736393e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.43254535232642e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.773007858830104e-07], ["'mixed heating grid' (megajoule, DK, None)", -4.782520709342837e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.204653584922489e-06], ["'mechanical disinfection' (unit, DK, None)", 4.4186193479387595e-05], ["'autoclave' (unit, DK, None)", 0.00019660727682576488], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1852901560323949e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.01237677764201e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.7669431780302694e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4248221706340314e-08], ["'steel recycling' (kilogram, RER, None)", 1.961300297736393e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.43254535232642e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.201091008008627e-09], ["'mixed heating grid' (megajoule, DK, None)", -2.2054778957623074e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.204653584922489e-06], ["'wet wipe' (unit, GLO, None)", 8.66246378988002e-05], ["'autoclave' (unit, DK, None)", 0.00019660727682576488], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1852901560323949e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.01237677764201e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.7669431780302694e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4248221706340314e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.664249963572818e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2622244041921782e-08], ["'steel recycling' (kilogram, RER, None)", 1.961300297736393e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.43254535232642e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.7509969487500146e-07], ["'mixed heating grid' (megajoule, DK, None)", -4.760465930385212e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.009802520155058126], ["'autoclave' (unit, DK, None)", 0.0174509356104483], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.220405885441083e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001073077316503514], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036686893122293054], ["'mixed heating grid' (megajoule, DK, None)", -0.00023528715267095326], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005176564573793565], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005118835653597248], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005584651146965593], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.007680350584297415], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.5465668415139103e-05]]</t>
+    <t>[["'H200' (unit, GLO, None)", 0.0007172858226427541], ["'autoclave' (unit, DK, None)", 0.0006586479328246033], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7538228575411474e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.099457612298842e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1115364033653215e-05], ["'mixed heating grid' (megajoule, DK, None)", -2.7309243648508662e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003807326774382142], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -3.941118262905677e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.0470594321143326e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0001735396256848087], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.263378298904284e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0007172858226427541], ["'autoclave' (unit, DK, None)", 0.0006586479328246033], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1637516157516024e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.400280444166292e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.410242689102144e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0001820616243233911], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.691043725538279e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.002052429293135868], ["'autoclave' (unit, DK, None)", 0.001317295865649206], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.96643295172867e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.336894994920358e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.1800442182894325e-05], ["'mixed heating grid' (megajoule, DK, None)", -7.813023676720259e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010715985954386823], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.0001186161807282291], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.154140517648402e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0004888440160135457], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4973978135173896e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.002052429293135868], ["'autoclave' (unit, DK, None)", 0.001317295865649206], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.278173565497472e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2181763036096e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00021200294788596233], ["'mixed heating grid' (megajoule, DK, None)", -0.0005208682451146839], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4973978135173896e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005598739452283587], ["'mechanical disinfection' (unit, DK, None)", 0.0007262930375047266], ["'autoclave' (unit, DK, None)", 0.0018442142119088894], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.576615679939471e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00018010314563334952], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2717906806432715e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.843849919786177e-08], ["'steel recycling' (kilogram, RER, None)", 1.1649763736911947e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.5022730244626093e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8659921907792996e-07], ["'mixed heating grid' (megajoule, DK, None)", -4.584540392012511e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0005598739452283587], ["'wet wipe' (unit, GLO, None)", 0.00016927094559419925], ["'autoclave' (unit, DK, None)", 0.0018442142119088894], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.576615679939471e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00018010314563334952], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2717906806432715e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.843849919786177e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7919175928308264e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.245317925719672e-07], ["'steel recycling' (kilogram, RER, None)", 1.1649763736911947e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.5022730244626093e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0231774512501822e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.9707275257093686e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003316099330383203], ["'mechanical disinfection' (unit, DK, None)", 0.0003631465187523633], ["'autoclave' (unit, DK, None)", 0.0010245634510604941], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.30587181964368e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00010676689016248191], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.543581361286543e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6473041574735243e-07], ["'steel recycling' (kilogram, RER, None)", 1.1649763736911947e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.5022730244626093e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.329960953896473e-08], ["'mixed heating grid' (megajoule, DK, None)", -2.2922701960062554e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0003316099330383203], ["'wet wipe' (unit, GLO, None)", 0.00016927094559419925], ["'autoclave' (unit, DK, None)", 0.0010245634510604941], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.30587181964368e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00010676689016248191], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.543581361286543e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6473041574735243e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7919175928308264e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.245317925719672e-07], ["'steel recycling' (kilogram, RER, None)", 1.1649763736911947e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.5022730244626093e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0138474902962834e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.947804823749305e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.24760101286060682], ["'autoclave' (unit, DK, None)", 0.18669863564806224], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.027294423150080727], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.032920532850365745], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004598296338643531], ["'mixed heating grid' (megajoule, DK, None)", -0.005033827469408784], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.14367684052188906], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.01487339403694346], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.004632566240967586], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.06914699383795243], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00020279253820470433]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.24760101286060682], ["'autoclave' (unit, DK, None)", 0.18669863564806224], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.1811125274444609], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.021957089341482477], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.030655308924290206], ["'mixed heating grid' (megajoule, DK, None)", -0.03355884979605856], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00018790802270217088]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.7085726046740395], ["'autoclave' (unit, DK, None)", 0.3733972712961243], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07729168424742487], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009936564502541588], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013155471688927538], ["'mixed heating grid' (megajoule, DK, None)", -0.014401502183369112], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.40438845842253546], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.0447645839946842], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.013955048236202219], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.19478026433226042], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005769319362216113]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.7085726046740395], ["'autoclave' (unit, DK, None)", 0.3733972712961243], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.5101761336463688], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.06614308893789081], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.08770314459285032], ["'mixed heating grid' (megajoule, DK, None)", -0.09601001455579407], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005769319362216113]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.12944187989952138], ["'mechanical disinfection' (unit, DK, None)", 0.21668038531414985], ["'autoclave' (unit, DK, None)", 0.5227561798145743], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.005994614151552536], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.04131583810180692], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037487899102933546], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.79273386325887e-05], ["'steel recycling' (kilogram, RER, None)", 4.550273338337034e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0004052921864046901], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.719391855111213e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.45053991862823e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.12944187989952138], ["'wet wipe' (unit, GLO, None)", 0.028771699921421062], ["'autoclave' (unit, DK, None)", 0.5227561798145743], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.005994614151552536], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.04131583810180692], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037487899102933546], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.79273386325887e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015121595041239896], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0144971153836473], ["'steel recycling' (kilogram, RER, None)", 4.550273338337034e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0004052921864046901], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008369648927685411], ["'mixed heating grid' (megajoule, DK, None)", -0.0091623865837927]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0766313453266751], ["'mechanical disinfection' (unit, DK, None)", 0.10834019265707492], ["'autoclave' (unit, DK, None)", 0.2904200998969857], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003553665364558498], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0244924292303404], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579820586709], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.346893046976348e-05], ["'steel recycling' (kilogram, RER, None)", 4.550273338337034e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0004052921864046901], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.859695927555596e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.225269959314115e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0766313453266751], ["'wet wipe' (unit, GLO, None)", 0.028771699921421062], ["'autoclave' (unit, DK, None)", 0.2904200998969857], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.003553665364558498], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0244924292303404], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007497579820586709], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.346893046976348e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0015121595041239896], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0144971153836473], ["'steel recycling' (kilogram, RER, None)", 4.550273338337034e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0004052921864046901], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008331051968409846], ["'mixed heating grid' (megajoule, DK, None)", -0.009120133884199556]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0076389196648151], ["'autoclave' (unit, DK, None)", 0.03740755433685492], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0014328505898690141], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017282826160280565], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00027580043439731264], ["'mixed heating grid' (megajoule, DK, None)", -0.0002218503140177792], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.003266895313114911], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.00033952378078655585], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005799063821932632], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.01316342755394894], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.948169312029844e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0076389196648151], ["'autoclave' (unit, DK, None)", 0.03740755433685492], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009507700175766355], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0011527169374792635], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0018386695626487507], ["'mixed heating grid' (megajoule, DK, None)", -0.0014790020934518614], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.036633784555061e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.021852640189579917], ["'autoclave' (unit, DK, None)", 0.07481510867370982], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.004057511483460854], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0005216559455717712], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007890498000348721], ["'mixed heating grid' (megajoule, DK, None)", -0.0006347014873124795], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.009194904026979055], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.0010218676897459447], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0017468981801970374], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.037080077616757585], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.830191206175579e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.021852640189579917], ["'autoclave' (unit, DK, None)", 0.07481510867370982], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02678225401624326], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.003472421035872884], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.005260332000232485], ["'mixed heating grid' (megajoule, DK, None)", -0.004231343248749863], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.830191206175579e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.010809142923742684], ["'mechanical disinfection' (unit, DK, None)", 0.044288512401811315], ["'autoclave' (unit, DK, None)", 0.1047411521431938], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.09305409936839014], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.023149246009359168], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.897268482388626e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8605595137372272e-06], ["'steel recycling' (kilogram, RER, None)", 1.1090349536415964e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.396913212745372e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.630000918015638e-06], ["'mixed heating grid' (megajoule, DK, None)", -3.7243130519680656e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.010809142923742684], ["'wet wipe' (unit, GLO, None)", 0.0014488295470564518], ["'autoclave' (unit, DK, None)", 0.1047411521431938], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.09305409936839014], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.023149246009359168], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.897268482388626e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8605595137372272e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6526132976247413e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007610785832050156], ["'steel recycling' (kilogram, RER, None)", 1.1090349536415964e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.396913212745372e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005020017502155132], ["'mixed heating grid' (megajoule, DK, None)", -0.0004038037364449904]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.006411923678749596], ["'mechanical disinfection' (unit, DK, None)", 0.022144256200905658], ["'autoclave' (unit, DK, None)", 0.05818952896844099], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.05516337191944034], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.013723097380303967], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.794536964777252e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.113525142277695e-06], ["'steel recycling' (kilogram, RER, None)", 1.1090349536415964e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.396913212745372e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3150004590078125e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.8621565259840328e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.006411923678749596], ["'wet wipe' (unit, GLO, None)", 0.0014488295470564518], ["'autoclave' (unit, DK, None)", 0.05818952896844099], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.05516337191944034], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.013723097380303967], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.794536964777252e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.113525142277695e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6526132976247413e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007610785832050156], ["'steel recycling' (kilogram, RER, None)", 1.1090349536415964e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.396913212745372e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004996867497565048], ["'mixed heating grid' (megajoule, DK, None)", -0.00040194157991900627]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.010072739447742774], ["'autoclave' (unit, DK, None)", 0.047104838724181565], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0020748014169577745], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.002502611963376753], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003596830071891196], ["'mixed heating grid' (megajoule, DK, None)", -0.0003029343400278215], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004353720453573687], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.0004525701106620456], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0007721343834994034], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.017326736582798374], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3407924815517702e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.010072739447742774], ["'autoclave' (unit, DK, None)", 0.047104838724181565], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013767373888224485], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0016691733003439445], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0023978867145941305], ["'mixed heating grid' (megajoule, DK, None)", -0.002019562266852143], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.4091862880115261e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.028816058845665436], ["'autoclave' (unit, DK, None)", 0.0942096774483631], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005875372236805661], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007553755375696805], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001029033204819643], ["'mixed heating grid' (megajoule, DK, None)", -0.0008666784044230555], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.012253848958733887], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.0013621042165556712], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0023259618980243373], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.048807708683939084], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.8144697497311433e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.028816058845665436], ["'autoclave' (unit, DK, None)", 0.0942096774483631], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.038781334896407005], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.005028183669536779], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006860221365464291], ["'mixed heating grid' (megajoule, DK, None)", -0.0057778560294870366], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.8144697497311433e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.01372949688634532], ["'mechanical disinfection' (unit, DK, None)", 0.0557028531650895], ["'autoclave' (unit, DK, None)", 0.1318935484277084], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.11130735035724203], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02795083844124139], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.526570320586724e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.5076213816363804e-06], ["'steel recycling' (kilogram, RER, None)", 1.624627866108226e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.9747419791630815e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.038179951091751e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.085511469524137e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.01372949688634532], ["'wet wipe' (unit, GLO, None)", 0.0014449094599728494], ["'autoclave' (unit, DK, None)", 0.1318935484277084], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.11130735035724203], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.02795083844124139], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.526570320586724e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.5076213816363804e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.848887804383431e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0011020676535971022], ["'steel recycling' (kilogram, RER, None)", 1.624627866108226e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.9747419791630815e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006546817068156018], ["'mixed heating grid' (megajoule, DK, None)", -0.000551389881697117]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.008146978581123608], ["'mechanical disinfection' (unit, DK, None)", 0.02785142658254475], ["'autoclave' (unit, DK, None)", 0.07327419357094911], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.06598407600310127], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.016569527907527623], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.053140641173448e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.196341026122471e-06], ["'steel recycling' (kilogram, RER, None)", 1.624627866108226e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.9747419791630815e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.0190899755458676e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.5427557347620685e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.008146978581123608], ["'wet wipe' (unit, GLO, None)", 0.0014449094599728494], ["'autoclave' (unit, DK, None)", 0.07327419357094911], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.06598407600310127], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.016569527907527623], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.053140641173448e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.196341026122471e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.848887804383431e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0011020676535971022], ["'steel recycling' (kilogram, RER, None)", 1.624627866108226e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.9747419791630815e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006516626168400552], ["'mixed heating grid' (megajoule, DK, None)", -0.0005488471259623548]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.673579678486306], ["'autoclave' (unit, DK, None)", 1.9488663328769333], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.07982228999814205], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.09627096302950107], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013779096694242274], ["'mixed heating grid' (megajoule, DK, None)", -0.0392340813536936], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3098276614576935], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.033747544053780595], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.034201980188608476], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.49064373414831797], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005649494448996185]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.673579678486306], ["'autoclave' (unit, DK, None)", 1.9488663328769333], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.529661924286737], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0642100826811443], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.09186064462828183], ["'mixed heating grid' (megajoule, DK, None)", -0.26156054235795734], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.0006806823970209595]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.9260218006806724], ["'autoclave' (unit, DK, None)", 3.8977326657538653], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.226038821209692], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.02905793287771179], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03942123410723306], ["'mixed heating grid' (megajoule, DK, None)", -0.11224653838683543], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.8720314974802633], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.10157027822011636], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.10302934884876555], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.38209502576991], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0016072454144454337]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.9260218006806724], ["'autoclave' (unit, DK, None)", 3.8977326657538653], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4920054205260198], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.19342514590330948], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.26280822738155396], ["'mixed heating grid' (megajoule, DK, None)", -0.7483102559122361], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0016072454144454337]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.32969451836452035], ["'mechanical disinfection' (unit, DK, None)", 2.2763283596098103], ["'autoclave' (unit, DK, None)", 5.456825732055414], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.38051473495018], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09413248668937765], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001995783100419094], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00010565984871382106], ["'steel recycling' (kilogram, RER, None)", 0.00010347067796186426], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.012405241104788196], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002313166419885436], ["'mixed heating grid' (megajoule, DK, None)", -0.0006586423008435672]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.32969451836452035], ["'wet wipe' (unit, GLO, None)", 0.07598228203768985], ["'autoclave' (unit, DK, None)", 5.456825732055414], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.38051473495018], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.09413248668937765], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001995783100419094], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00010565984871382106], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00028395414583981006], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04239455252675276], ["'steel recycling' (kilogram, RER, None)", 0.00010347067796186426], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.012405241104788196], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.025080202183197915], ["'mixed heating grid' (megajoule, DK, None)", -0.07141242380814726]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.20036231417895103], ["'mechanical disinfection' (unit, DK, None)", 1.1381641798049051], ["'autoclave' (unit, DK, None)", 3.0315698511418963], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.22557282255546032], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.055802650374281317], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003991566200838188], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001768148737359882], ["'steel recycling' (kilogram, RER, None)", 0.00010347067796186426], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.012405241104788196], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001156583209942715], ["'mixed heating grid' (megajoule, DK, None)", -0.0003293211504217836]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.20036231417895103], ["'wet wipe' (unit, GLO, None)", 0.07598228203768985], ["'autoclave' (unit, DK, None)", 3.0315698511418963], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.22557282255546032], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.055802650374281317], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003991566200838188], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001768148737359882], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00028395414583981006], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04239455252675276], ["'steel recycling' (kilogram, RER, None)", 0.00010347067796186426], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.012405241104788196], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.024964543862203613], ["'mixed heating grid' (megajoule, DK, None)", -0.07108310265772547]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.14974332898850837], ["'autoclave' (unit, DK, None)", 0.04804806109566909], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.64629847379345e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.4312213123494944e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0012072278895031803], ["'mixed heating grid' (megajoule, DK, None)", -0.0014855889946351088], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.10347569844617766], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.010373802145854028], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0010452896062974522], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.019491736298915294], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.510227933446563e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.14974332898850837], ["'autoclave' (unit, DK, None)", 0.04804806109566909], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003083057865788177], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.622475132181727e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008048185930021202], ["'mixed heating grid' (megajoule, DK, None)", -0.009903926630900726], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 4.652792174523579e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4284085117278474], ["'autoclave' (unit, DK, None)", 0.09609612219133813], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00013157275117377714], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6393319373972327e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0034538122715091954], ["'mixed heating grid' (megajoule, DK, None)", -0.004250188008994162], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.2912395486067914], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.031222122963249985], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.003148809130387098], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.05490629943356421], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001283131301319133]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.4284085117278474], ["'autoclave' (unit, DK, None)", 0.09609612219133813], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008684670044473739], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010912270343160911], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.023025415143394654], ["'mixed heating grid' (megajoule, DK, None)", -0.02833458672662775], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0001283131301319133]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.029336711428646533], ["'mechanical disinfection' (unit, DK, None)", 0.056087889870442866], ["'autoclave' (unit, DK, None)", 0.13453457106787345], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.001387399459322731], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00880772618183121], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391610101336886e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.435268065401643e-06], ["'steel recycling' (kilogram, RER, None)", 1.0320653787335899e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -9.503430651558011e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0266343121859378e-05], ["'mixed heating grid' (megajoule, DK, None)", -2.493933131028271e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.029336711428646533], ["'wet wipe' (unit, GLO, None)", 0.014094132048867758], ["'autoclave' (unit, DK, None)", 0.13453457106787345], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.001387399459322731], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00880772618183121], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2391610101336886e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.435268065401643e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.3533594882681354e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.391730486172254e-05], ["'steel recycling' (kilogram, RER, None)", 1.0320653787335899e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -9.503430651558011e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0021973515551702905], ["'mixed heating grid' (megajoule, DK, None)", -0.0027040141435505857]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.017302961586453964], ["'mechanical disinfection' (unit, DK, None)", 0.028043944935221433], ["'autoclave' (unit, DK, None)", 0.07474142837104081], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0008224638451709975], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0052213054387799706], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4783220202673773e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4115871601831175e-05], ["'steel recycling' (kilogram, RER, None)", 1.0320653787335899e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -9.503430651558011e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0133171560929662e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.2469665655141354e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.017302961586453964], ["'wet wipe' (unit, GLO, None)", 0.014094132048867758], ["'autoclave' (unit, DK, None)", 0.07474142837104081], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0008224638451709975], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0052213054387799706], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4783220202673773e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4115871601831175e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.3533594882681354e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.391730486172254e-05], ["'steel recycling' (kilogram, RER, None)", 1.0320653787335899e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -9.503430651558011e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0021872183836093586], ["'mixed heating grid' (megajoule, DK, None)", -0.002691544477895444]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.476664513237117e-05], ["'autoclave' (unit, DK, None)", 0.0001827349334237715], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.5320849669986326e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8347568926785117e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.6073178208805556e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.414161204562737e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3474699814025318e-05], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -2.4829368837959124e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.6547066695975404e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.972093252856824e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.44352678416452e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 5.476664513237117e-05], ["'autoclave' (unit, DK, None)", 0.0001827349334237715], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6801685295037656e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8907048265846588e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4048785472537037e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.42774136375158e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.3705362259321535e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.00015702871269694096], ["'autoclave' (unit, DK, None)", 0.0003654698668475429], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.170296682248465e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.55628456597459e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0320336918424259e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.045837049226106e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.607117497325007e-05], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -7.4729168347255616e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.984604685582686e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.372093670019224e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.951679047354125e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.00015702871269694096], ["'autoclave' (unit, DK, None)", 0.0003654698668475429], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.7328690971937066e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.6955207293265503e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.880224612282844e-05], ["'mixed heating grid' (megajoule, DK, None)", -2.6972246994840703e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.951679047354125e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.767048848853189e-05], ["'mechanical disinfection' (unit, DK, None)", 0.00020048906606673082], ["'autoclave' (unit, DK, None)", 0.0005116578135865603], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.871455842334105e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3061709620177699e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.115567228330529e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.570013700763391e-09], ["'steel recycling' (kilogram, RER, None)", 2.7640493684860743e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.3825267174080717e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.0557862639878e-08], ["'mixed heating grid' (megajoule, DK, None)", -2.37402369929384e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 4.767048848853189e-05], ["'wet wipe' (unit, GLO, None)", 1.4262808581576666e-05], ["'autoclave' (unit, DK, None)", 0.0005116578135865603], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 5.871455842334105e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.3061709620177699e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.115567228330529e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.570013700763391e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9106681078782565e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2483333105373261e-08], ["'steel recycling' (kilogram, RER, None)", 2.7640493684860743e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.3825267174080717e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.565906480977229e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.5740039218164813e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.821118463754887e-05], ["'mechanical disinfection' (unit, DK, None)", 0.00010024453303336541], ["'autoclave' (unit, DK, None)", 0.0002842543408814224], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.4806559252914565e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.743108047600455e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231134456661057e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.64762022005921e-09], ["'steel recycling' (kilogram, RER, None)", 2.7640493684860743e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.3825267174080717e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.027893131993892e-08], ["'mixed heating grid' (megajoule, DK, None)", -1.18701184964692e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.821118463754887e-05], ["'wet wipe' (unit, GLO, None)", 1.4262808581576666e-05], ["'autoclave' (unit, DK, None)", 0.0002842543408814224], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.4806559252914565e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.743108047600455e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6231134456661057e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.64762022005921e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9106681078782565e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2483333105373261e-08], ["'steel recycling' (kilogram, RER, None)", 2.7640493684860743e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.3825267174080717e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.535627549657282e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.562133803320012e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 7.737268595788349e-06], ["'autoclave' (unit, DK, None)", 0.00012639039224513458], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.28020554786901e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.1371345845197385e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.622296914865318e-07], ["'mixed heating grid' (megajoule, DK, None)", -2.6275232876870103e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.3440343093049287e-06], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -2.482733043248023e-07], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.0717596883647554e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.293265243478429e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.5525157322583815e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 7.737268595788349e-06], ["'autoclave' (unit, DK, None)", 0.00012639039224513458], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8401363915766325e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.4263273788494035e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7481979432435452e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.7516821917913402e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 7.676274714763838e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.2418066339792703e-05], ["'autoclave' (unit, DK, None)", 0.0002527807844902691], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.212058206546084e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.550566310373389e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.502246545869482e-07], ["'mixed heating grid' (megajoule, DK, None)", -7.517198909664251e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.597447559301952e-06], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -7.472303334047447e-07], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.2285470667383962e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.64300068585473e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.295161912436799e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.2418066339792703e-05], ["'autoclave' (unit, DK, None)", 0.0002527807844902691], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.000384201624318e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0321398844126814e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.001497697246325e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.011465939776167e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.295161912436799e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.420704495659878e-06], ["'mechanical disinfection' (unit, DK, None)", 8.837238695877522e-05], ["'autoclave' (unit, DK, None)", 0.0003538930982863769], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.999444633676268e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0142170187202313e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3834715890151343e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.514356954951594e-09], ["'steel recycling' (kilogram, RER, None)", 1.961300297736393e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.4325453523264203e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.402182016017267e-09], ["'mixed heating grid' (megajoule, DK, None)", -4.410955791524614e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.420704495659878e-06], ["'wet wipe' (unit, GLO, None)", 8.66246378988002e-05], ["'autoclave' (unit, DK, None)", 0.0003538930982863769], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.999444633676268e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0142170187202313e-06], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3834715890151343e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.514356954951594e-09], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.664249963572819e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2622244041921782e-08], ["'steel recycling' (kilogram, RER, None)", 1.961300297736393e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.4325453523264203e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.773007858830105e-07], ["'mixed heating grid' (megajoule, DK, None)", -4.782520709342836e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.20465358492249e-06], ["'mechanical disinfection' (unit, DK, None)", 4.418619347938761e-05], ["'autoclave' (unit, DK, None)", 0.0001966072768257649], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1852901560323948e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.012376777642012e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.766943178030269e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4248221706340315e-08], ["'steel recycling' (kilogram, RER, None)", 1.961300297736393e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.4325453523264203e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.2010910080086277e-09], ["'mixed heating grid' (megajoule, DK, None)", -2.205477895762307e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.20465358492249e-06], ["'wet wipe' (unit, GLO, None)", 8.66246378988002e-05], ["'autoclave' (unit, DK, None)", 0.0001966072768257649], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1852901560323948e-07], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.012376777642012e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.766943178030269e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4248221706340315e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.664249963572819e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2622244041921782e-08], ["'steel recycling' (kilogram, RER, None)", 1.961300297736393e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.4325453523264203e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.7509969487500135e-07], ["'mixed heating grid' (megajoule, DK, None)", -4.760465930385211e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.009802520155058126], ["'autoclave' (unit, DK, None)", 0.0174509356104483], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.220405885441083e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001073077316503514], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036686893122293054], ["'mixed heating grid' (megajoule, DK, None)", -0.00023528715267095326], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005176564573793565], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.0006296061496097044], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005584651146965593], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.007680350584297417], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.5465668415139103e-05]]</t>
   </si>
   <si>
     <t>[["'H200' (unit, GLO, None)", 0.009802520155058126], ["'autoclave' (unit, DK, None)", 0.0174509356104483], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0006118213251087073], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.15713035869775e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0024457928748195367], ["'mixed heating grid' (megajoule, DK, None)", -0.0015685810178063552], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.5172251058023256e-05]]</t>
   </si>
   <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02806666500661812], ["'autoclave' (unit, DK, None)", 0.03490187122089659], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00026110121339146245], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2389214415564775e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010495917363329622], ["'mixed heating grid' (megajoule, DK, None)", -0.0006731435400799321], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.014569800952730234], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0015406204394321813], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0016823089424834454], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.02163479037830258], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.399884780129764e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.02806666500661812], ["'autoclave' (unit, DK, None)", 0.03490187122089659], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017234403524188941], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002155999379029996], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006997278242219754], ["'mixed heating grid' (megajoule, DK, None)", -0.00448762360053288], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.399884780129764e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02340954664242454], ["'mechanical disinfection' (unit, DK, None)", 0.01975198100581723], ["'autoclave' (unit, DK, None)", 0.04886261970925524], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006233027828142308], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.007859842390364741], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7905412981674305e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8924715295402565e-06], ["'steel recycling' (kilogram, RER, None)", 0.0006600604478307561], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0006694211482204711], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.158813680135868e-06], ["'mixed heating grid' (megajoule, DK, None)", -3.949884035695385e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.02340954664242454], ["'wet wipe' (unit, GLO, None)", 0.0011988362195746848], ["'autoclave' (unit, DK, None)", 0.04886261970925524], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006233027828142308], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.007859842390364741], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7905412981674305e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8924715295402565e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593732977544e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.725478091024648e-05], ["'steel recycling' (kilogram, RER, None)", 0.0006600604478307561], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0006694211482204711], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006677612599706636], ["'mixed heating grid' (megajoule, DK, None)", -0.0004282609732002439]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.014171018929295296], ["'mechanical disinfection' (unit, DK, None)", 0.009875990502908615], ["'autoclave' (unit, DK, None)", 0.02714589983847513], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00036949993025759596], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004659390740986054], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082596334861e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.840362678029295e-06], ["'steel recycling' (kilogram, RER, None)", 0.0006600604478307561], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0006694211482204711], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.079406840067926e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.9749420178476926e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.014171018929295296], ["'wet wipe' (unit, GLO, None)", 0.0011988362195746848], ["'autoclave' (unit, DK, None)", 0.02714589983847513], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00036949993025759596], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004659390740986054], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082596334861e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.840362678029295e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593732977544e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.725478091024648e-05], ["'steel recycling' (kilogram, RER, None)", 0.0006600604478307561], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0006694211482204711], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0006646818531305953], ["'mixed heating grid' (megajoule, DK, None)", -0.00042628603118239613]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.152659717202204], ["'autoclave' (unit, DK, None)", 0.529863448841897], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.017325663911286596], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020897777183670786], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0065040418552713645], ["'mixed heating grid' (megajoule, DK, None)", -0.009498458889625423], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.06957010388139193], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00950036004799163], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.010692156783135263], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.24788885410562744], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00021013730706507416]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.152659717202204], ["'autoclave' (unit, DK, None)", 0.529863448841897], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.11496468576648114], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013938242213329049], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.043360279035142425], ["'mixed heating grid' (megajoule, DK, None)", -0.06332305926416949], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00025494173343468794]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4371103985839175], ["'autoclave' (unit, DK, None)", 1.0597268976837935], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.049062394066540546], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.006307677700392375], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.018607704286379888], ["'mixed heating grid' (megajoule, DK, None)", -0.027174565927991237], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.19580989503040777], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.028593316649295198], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.032208835426501], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.6982784622693732], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005978273387705748]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.4371103985839175], ["'autoclave' (unit, DK, None)", 1.0597268976837935], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.32384418525769343], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04198727709379727], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.12405136190919934], ["'mixed heating grid' (megajoule, DK, None)", -0.1811637728532749], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005978273387705748]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.14223949298077632], ["'mechanical disinfection' (unit, DK, None)", 0.5939082907087039], ["'autoclave' (unit, DK, None)", 1.4836176567573116], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.07603359543730805], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.06470298475506672], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003711922575543457], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.93009963529933e-05], ["'steel recycling' (kilogram, RER, None)", 7.435554017136028e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0005303839173977184], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00010918662918905095], ["'mixed heating grid' (megajoule, DK, None)", -0.0001594554173738022]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.14223949298077632], ["'wet wipe' (unit, GLO, None)", 0.02789066216886284], ["'autoclave' (unit, DK, None)", 1.4836176567573116], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.07603359543730805], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.06470298475506672], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003711922575543457], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.93009963529933e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008669821550514297], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009202690869873374], ["'steel recycling' (kilogram, RER, None)", 7.435554017136028e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0005303839173977184], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.011838416433085185], ["'mixed heating grid' (megajoule, DK, None)", -0.017288743570552264]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.08426939928463106], ["'mechanical disinfection' (unit, DK, None)", 0.29695414535435194], ["'autoclave' (unit, DK, None)", 0.8242320315318397], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.04507345223852923], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03835655641791177], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007423845151086914], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.576765717954378e-05], ["'steel recycling' (kilogram, RER, None)", 7.435554017136028e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0005303839173977184], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.4593314594525334e-05], ["'mixed heating grid' (megajoule, DK, None)", -7.97277086869011e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.08426939928463106], ["'wet wipe' (unit, GLO, None)", 0.02789066216886284], ["'autoclave' (unit, DK, None)", 0.8242320315318397], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.04507345223852923], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03835655641791177], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007423845151086914], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.576765717954378e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008669821550514297], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009202690869873374], ["'steel recycling' (kilogram, RER, None)", 7.435554017136028e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0005303839173977184], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.011783823118490652], ["'mixed heating grid' (megajoule, DK, None)", -0.017209015861865358]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01108799458618735], ["'autoclave' (unit, DK, None)", 0.05139113219371798], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.019082145165691e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331611995765e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013964064999887442], ["'mixed heating grid' (megajoule, DK, None)", -0.00020636331661906353], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0028446495632353254], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007451568719015658], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0008518831846287736], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015566512597078542], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.457986378116394e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.01108799458618735], ["'autoclave' (unit, DK, None)", 0.05139113219371798], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.6668675916520006e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.0983083320375424e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.009309376666591629], ["'mixed heating grid' (megajoule, DK, None)", -0.0013757554441270903], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.8814514924870296e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.03189183543875633], ["'autoclave' (unit, DK, None)", 0.10278226438743593], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1381139158740229e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4021230278409236e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00399504182069646], ["'mixed heating grid' (megajoule, DK, None)", -0.0005903940436809976], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008006464002483532], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0022427051484416056], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.002566195563049538], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04384933125937618], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.1217499221286828e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.03189183543875633], ["'autoclave' (unit, DK, None)", 0.10278226438743593], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.512303075076059e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.3332809452025e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02663361213797642], ["'mixed heating grid' (megajoule, DK, None)", -0.00393596029120665], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.1217499221286828e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.008846292214428115], ["'mechanical disinfection' (unit, DK, None)", 0.06180787310264136], ["'autoclave' (unit, DK, None)", 0.14389517014241035], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00044577131155524295], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008080176953012228], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6449234556446614e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3948322624894903e-06], ["'steel recycling' (kilogram, RER, None)", 1.4838841722715087e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.2918733080297082e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3442179817443708e-05], ["'mixed heating grid' (megajoule, DK, None)", -3.4643250199330515e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.008846292214428115], ["'wet wipe' (unit, GLO, None)", 0.0014076677504756042], ["'autoclave' (unit, DK, None)", 0.14389517014241035], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00044577131155524295], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0008080176953012228], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6449234556446614e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3948322624894903e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.626361223828472e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.045650618126575e-06], ["'steel recycling' (kilogram, RER, None)", 1.4838841722715087e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.2918733080297082e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0025416874652083544], ["'mixed heating grid' (megajoule, DK, None)", -0.0003756148765661891]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005217770009538161], ["'mechanical disinfection' (unit, DK, None)", 0.03090393655132068], ["'autoclave' (unit, DK, None)", 0.07994176119022797], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00026425755358706665], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004790007205048671], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.289846911289323e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.334160926568707e-06], ["'steel recycling' (kilogram, RER, None)", 1.4838841722715087e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.2918733080297082e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1721089908721823e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.7321625099665258e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.005217770009538161], ["'wet wipe' (unit, GLO, None)", 0.0014076677504756042], ["'autoclave' (unit, DK, None)", 0.07994176119022797], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00026425755358706665], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004790007205048671], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.289846911289323e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.334160926568707e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.626361223828472e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.045650618126575e-06], ["'steel recycling' (kilogram, RER, None)", 1.4838841722715087e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.2918733080297082e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.002529966375299631], ["'mixed heating grid' (megajoule, DK, None)", -0.00037388271405622254]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.004108042213213078], ["'autoclave' (unit, DK, None)", 0.034665509978416796], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.800015699411144e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.21800745164866e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009596384912973705], ["'mixed heating grid' (megajoule, DK, None)", -0.0054730727289110685], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00110994152162931], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0001699461976575936], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00016944016467723615], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0023769670802995272], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6169705248158913e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.004108042213213078], ["'autoclave' (unit, DK, None)", 0.034665509978416796], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.857954342599918e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1463224012372255e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00639758994198247], ["'mixed heating grid' (megajoule, DK, None)", -0.0364871515260738], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.700849671876376e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01197444719294101], ["'autoclave' (unit, DK, None)", 0.06933101995683356], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.92901641982782e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.713068363233111e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0027454726868672936], ["'mixed heating grid' (megajoule, DK, None)", -0.015658158594857058], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00312400759398978], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0005114885560568352], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005104181026728296], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.006695681916336698], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.445115512055335e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.01197444719294101], ["'autoclave' (unit, DK, None)", 0.06933101995683356], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.233674204506812e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.4655379074408855e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01830315124578197], ["'mixed heating grid' (megajoule, DK, None)", -0.10438772396571372], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.445115512055335e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002507238880475325], ["'mechanical disinfection' (unit, DK, None)", 0.04155330652290485], ["'autoclave' (unit, DK, None)", 0.09706342793956704], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003414505931111522], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005506981837799754], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.554129597118652e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.894397405589214e-07], ["'steel recycling' (kilogram, RER, None)", 1.1045610778622551e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.334947424931344e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6109935089040817e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.187923077278328e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002507238880475325], ["'wet wipe' (unit, GLO, None)", 0.012046855371044194], ["'autoclave' (unit, DK, None)", 0.09706342793956704], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003414505931111522], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005506981837799754], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.554129597118652e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.894397405589214e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994015730002735e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.417104198891153e-06], ["'steel recycling' (kilogram, RER, None)", 1.1045610778622551e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.334947424931344e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001746698489645847], ["'mixed heating grid' (megajoule, DK, None)", -0.009961884559660147]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0014889160337899087], ["'mechanical disinfection' (unit, DK, None)", 0.020776653261452425], ["'autoclave' (unit, DK, None)", 0.053924126633092796], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00020241522069152707], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00032645922031818], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7108259194237304e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.190455218490242e-07], ["'steel recycling' (kilogram, RER, None)", 1.1045610778622551e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.334947424931344e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.054967544520388e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.593961538639164e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0014889160337899087], ["'wet wipe' (unit, GLO, None)", 0.012046855371044194], ["'autoclave' (unit, DK, None)", 0.053924126633092796], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00020241522069152707], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00032645922031818], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7108259194237304e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.190455218490242e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994015730002735e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.417104198891153e-06], ["'steel recycling' (kilogram, RER, None)", 1.1045610778622551e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.334947424931344e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0017386435221013255], ["'mixed heating grid' (megajoule, DK, None)", -0.009915944944273754]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.002434545193494584], ["'autoclave' (unit, DK, None)", 0.004014487840968371], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0305279708610647e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283815955196e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.6255176365601204e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.880157172382665e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0012383564703484248], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00011590752282829769], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00012179596542272012], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0016092924269106384], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.218120935276382e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.002434545193494584], ["'autoclave' (unit, DK, None)", 0.004014487840968371], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.838082797302392e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.340221407522412e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00030836784243734133], ["'mixed heating grid' (megajoule, DK, None)", -0.00032534381149217767], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.144708760133386e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.006964031577580463], ["'autoclave' (unit, DK, None)", 0.008028975681936739], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9182240670177817e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3217783261002384e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00013233350317816252], ["'mixed heating grid' (megajoule, DK, None)", -0.00013961859956536783], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0034854403966760304], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00034884788424050764], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00036689568676170155], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0045332181039736295], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4845223800042618e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.006964031577580463], ["'autoclave' (unit, DK, None)", 0.008028975681936739], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019262205062823643], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.211153353847879e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0008822233545210842], ["'mixed heating grid' (megajoule, DK, None)", -0.0009307906637691188], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4845223800042618e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002172926234717963], ["'mechanical disinfection' (unit, DK, None)", 0.0035776283310024973], ["'autoclave' (unit, DK, None)", 0.011240565954711441], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00024104890433716874], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007747218602506128], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.658169036047242e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.75920719224159e-07], ["'steel recycling' (kilogram, RER, None)", 2.6090498862520383e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.282662712944464e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.765089620097986e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.19256584478116e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.002172926234717963], ["'wet wipe' (unit, GLO, None)", 0.0002415637210049766], ["'autoclave' (unit, DK, None)", 0.011240565954711441], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00024104890433716874], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007747218602506128], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.658169036047242e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.75920719224159e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.372697710573594e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.846363515283022e-06], ["'steel recycling' (kilogram, RER, None)", 2.6090498862520383e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.282662712944464e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.419196127373938e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.882681592639136e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001300683374099547], ["'mechanical disinfection' (unit, DK, None)", 0.0017888141655012487], ["'autoclave' (unit, DK, None)", 0.006244758863728578], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0001428961265648632], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004592626268074168], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.316338072094484e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6331397484140323e-06], ["'steel recycling' (kilogram, RER, None)", 2.6090498862520383e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.282662712944464e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.882544810048983e-07], ["'mixed heating grid' (megajoule, DK, None)", -4.09628292239058e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.001300683374099547], ["'wet wipe' (unit, GLO, None)", 0.0002415637210049766], ["'autoclave' (unit, DK, None)", 0.006244758863728578], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0001428961265648632], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0004592626268074168], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.316338072094484e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6331397484140323e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.372697710573594e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.846363515283022e-06], ["'steel recycling' (kilogram, RER, None)", 2.6090498862520383e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.282662712944464e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 8.380370679273443e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.841718763415228e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.65614584676176e-08], ["'autoclave' (unit, DK, None)", 2.0754074586812848e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9917330483243673e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374942140818e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.612973095783043e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.2152065317873592e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.628140314286564e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.6566718279978125e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.7932744220771254e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.748126162210412e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2615856900832307e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.65614584676176e-08], ["'autoclave' (unit, DK, None)", 2.0754074586812848e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3216172563647671e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6018928057739794e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.075315397188696e-08], ["'mixed heating grid' (megajoule, DK, None)", -8.101376878582396e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.0864450901562398e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.335684925707784e-07], ["'autoclave' (unit, DK, None)", 4.150814917362568e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.640141248993302e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.249281060517733e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.319746107995732e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.4766387261253326e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.5825141296145016e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.9860996764982705e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.402023362240583e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.741200456930738e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.589131441091216e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.335684925707784e-07], ["'autoclave' (unit, DK, None)", 4.150814917362568e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7228655108866684e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.825509277365908e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.79830738663822e-08], ["'mixed heating grid' (megajoule, DK, None)", -2.3177591507502216e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.589131441091216e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.1588611854432645e-08], ["'mechanical disinfection' (unit, DK, None)", 2.2741986366167732e-07], ["'autoclave' (unit, DK, None)", 5.811140884307599e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1830130195306297e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0545409576194592e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6068218973549733e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.359484629237941e-11], ["'steel recycling' (kilogram, RER, None)", 1.3044470155582395e-11], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.0361651261325478e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.744030467148909e-11], ["'mixed heating grid' (megajoule, DK, None)", -2.0400284611766688e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.1588611854432645e-08], ["'wet wipe' (unit, GLO, None)", 1.0280456271495988e-07], ["'autoclave' (unit, DK, None)", 5.811140884307599e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1830130195306297e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0545409576194592e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6068218973549733e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.359484629237941e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.334662749582852e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0576458690117057e-09], ["'steel recycling' (kilogram, RER, None)", 1.3044470155582395e-11], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.0361651261325478e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.396363018211133e-09], ["'mixed heating grid' (megajoule, DK, None)", -2.211873984766e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.8683864233467936e-08], ["'mechanical disinfection' (unit, DK, None)", 1.1370993183083866e-07], ["'autoclave' (unit, DK, None)", 3.2284116023931097e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.2941112741805256e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.251420995344741e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2136437947099467e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.9484438211782127e-11], ["'steel recycling' (kilogram, RER, None)", 1.3044470155582395e-11], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.0361651261325478e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.872015233574444e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.0200142305883344e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 1.8683864233467936e-08], ["'wet wipe' (unit, GLO, None)", 1.0280456271495988e-07], ["'autoclave' (unit, DK, None)", 3.2284116023931097e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.2941112741805256e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.251420995344741e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2136437947099467e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.9484438211782127e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.334662749582852e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0576458690117057e-09], ["'steel recycling' (kilogram, RER, None)", 1.3044470155582395e-11], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.0361651261325478e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 8.357642865875385e-09], ["'mixed heating grid' (megajoule, DK, None)", -2.2016738424601163e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0003086847796465514], ["'autoclave' (unit, DK, None)", 0.00022786518000064335], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.89386434251763e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489123360138e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.7498113989372844e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.191110353144793e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00014427075365636363], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.698842747441958e-06], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.742408040581908e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.560535805498087e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4527956919667074e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0003086847796465514], ["'autoclave' (unit, DK, None)", 0.00022786518000064335], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.910881946904222e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.597767516222771e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4998742659581896e-05], ["'mixed heating grid' (megajoule, DK, None)", -7.940735687631953e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.568759228309524e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008831184111937338], ["'autoclave' (unit, DK, None)", 0.0004557303600012865], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6690101829746189e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.080695340904115e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.072800316999348e-05], ["'mixed heating grid' (megajoule, DK, None)", -3.4077008907623485e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0004060600682381096], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.4142148074825311e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.4285933437241235e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00021297283959149541], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.978048503411613e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.0008831184111937338], ["'autoclave' (unit, DK, None)", 0.0004557303600012865], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1016568864518938e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3850221266200644e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.152002113328992e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00022718005938415653], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.978048503411613e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00024380670241190853], ["'mechanical disinfection' (unit, DK, None)", 0.000249859176480511], ["'autoclave' (unit, DK, None)", 0.0006380225040018015], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.9858829395257686e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.903157851025422e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.438394389090101e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.587348904912418e-08], ["'steel recycling' (kilogram, RER, None)", 4.768548574473201e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.4104043375167598e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.29499741630367e-08], ["'mixed heating grid' (megajoule, DK, None)", -1.999576991446555e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.00024380670241190853], ["'wet wipe' (unit, GLO, None)", 4.527322175360308e-05], ["'autoclave' (unit, DK, None)", 0.0006380225040018015], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.9858829395257686e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.903157851025422e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.438394389090101e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.587348904912418e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.749437136537389e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.035664935057675e-07], ["'steel recycling' (kilogram, RER, None)", 4.768548574473201e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.4104043375167598e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.8252680216334735e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.168015011597567e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00014474665837958372], ["'mechanical disinfection' (unit, DK, None)", 0.0001249295882402555], ["'autoclave' (unit, DK, None)", 0.00035445694666766744], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1772506523097266e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.685068565848208e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.876788778180202e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.67662955492112e-08], ["'steel recycling' (kilogram, RER, None)", 4.768548574473201e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.4104043375167598e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.147498708151827e-08], ["'mixed heating grid' (megajoule, DK, None)", -9.997884957232775e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00014474665837958372], ["'wet wipe' (unit, GLO, None)", 4.527322175360308e-05], ["'autoclave' (unit, DK, None)", 0.00035445694666766744], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1772506523097266e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.685068565848208e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.876788778180202e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.67662955492112e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.749437136537389e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.035664935057675e-07], ["'steel recycling' (kilogram, RER, None)", 4.768548574473201e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.4104043375167598e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.793793034551951e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.1580171266403335e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005812956186691691], ["'autoclave' (unit, DK, None)", 0.00039441669046076877], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2088401671258995e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.058229286396022e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.023831935535743e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.1815357036117434e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002977488873338816], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.049983129244607e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.028043455913636e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00014443476967021993], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.178881256756618e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.0005812956186691691], ["'autoclave' (unit, DK, None)", 0.00039441669046076877], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.7927817931396152e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.373699716706337e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.015887957023829e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00014543571357411624], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.57075037278003e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001663931908163918], ["'autoclave' (unit, DK, None)", 0.0007888333809215372], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1918491314384557e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.526749940572744e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5816684443743396e-05], ["'mixed heating grid' (megajoule, DK, None)", -6.241253080203825e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008380349477940376], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.1601433986973614e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.7195894316988804e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0004068585061132956], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6113336233620884e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001663931908163918], ["'autoclave' (unit, DK, None)", 0.0007888333809215372], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.866990966590467e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.016286434606173e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00017211122962495609], ["'mixed heating grid' (megajoule, DK, None)", -0.00041608353868025495], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6113336233620884e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003254867804003926], ["'mechanical disinfection' (unit, DK, None)", 0.00045337132789411913], ["'autoclave' (unit, DK, None)", 0.0011043667332901526], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.6765598737954953e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00010948847488999284], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.501683632918703e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.716683171754165e-07], ["'steel recycling' (kilogram, RER, None)", 8.149766264620794e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.026670221300295e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.514876154450191e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.66225395274601e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003254867804003926], ["'wet wipe' (unit, GLO, None)", 0.0005215115272185458], ["'autoclave' (unit, DK, None)", 0.0011043667332901526], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.6765598737954953e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00010948847488999284], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.501683632918703e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.716683171754165e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945298345614e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2274771169450366e-06], ["'steel recycling' (kilogram, RER, None)", 8.149766264620794e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.026670221300295e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6424845142788232e-05], ["'mixed heating grid' (megajoule, DK, None)", -3.970750603652409e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00019279184287238535], ["'mechanical disinfection' (unit, DK, None)", 0.00022668566394705957], ["'autoclave' (unit, DK, None)", 0.0006135370740500847], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 9.9388094120663e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.490582899887422e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9003367265837406e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.872757456624144e-07], ["'steel recycling' (kilogram, RER, None)", 8.149766264620794e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.026670221300295e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.574380772250936e-08], ["'mixed heating grid' (megajoule, DK, None)", -1.831126976373005e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.00019279184287238535], ["'wet wipe' (unit, GLO, None)", 0.0005215115272185458], ["'autoclave' (unit, DK, None)", 0.0006135370740500847], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 9.9388094120663e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.490582899887422e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9003367265837406e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.872757456624144e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945298345614e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2274771169450366e-06], ["'steel recycling' (kilogram, RER, None)", 8.149766264620794e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.026670221300295e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.6349101335065714e-05], ["'mixed heating grid' (megajoule, DK, None)", -3.952439333888678e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.000615872533967301], ["'autoclave' (unit, DK, None)", 0.00040429898770382545], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.232814578716672e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.08515088598884e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.22722356051709e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.2497005836221522e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00031883610957929916], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.1007680850340343e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.486660510903029e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0001523782405125032], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.7336469911896e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.000615872533967301], ["'autoclave' (unit, DK, None)", 0.00040429898770382545], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8086900475596603e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.391655682673291e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.15148237367806e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0001499800389081435], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.012419265467213e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001763208259201201], ["'autoclave' (unit, DK, None)", 0.0008085979754076506], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.198638147057151e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5348758178810351e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6398576641886588e-05], ["'mixed heating grid' (megajoule, DK, None)", -6.436269034617196e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008973864011337891], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.312991323888841e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.8577422997080648e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00042923448031691045], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.7691609636327375e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.001763208259201201], ["'autoclave' (unit, DK, None)", 0.0008085979754076506], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.911802950872284e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0216954532399596e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00017599051094591072], ["'mixed heating grid' (megajoule, DK, None)", -0.000429084602307813], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.7691609636327375e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.000332395259172537], ["'mechanical disinfection' (unit, DK, None)", 0.00046454154973013317], ["'autoclave' (unit, DK, None)", 0.0011320371655707112], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7425648646801944e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001112927841769316], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.566019759726968e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8204384087952702e-07], ["'steel recycling' (kilogram, RER, None)", 8.523807116642426e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.0708398562227404e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5490205317945624e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.776685772882292e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.000332395259172537], ["'wet wipe' (unit, GLO, None)", 0.000799107220526755], ["'autoclave' (unit, DK, None)", 0.0011320371655707112], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.7425648646801944e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001112927841769316], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.566019759726968e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.8204384087952702e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.332091503300978e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.239332500251966e-06], ["'steel recycling' (kilogram, RER, None)", 8.523807116642426e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.0708398562227404e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6795051056143414e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.094821797170402e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001968611341135957], ["'mechanical disinfection' (unit, DK, None)", 0.00023227077486506658], ["'autoclave' (unit, DK, None)", 0.0006289095364281729], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.033009339476301e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.597544103024823e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9132039519453935e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.04638508679953e-07], ["'steel recycling' (kilogram, RER, None)", 8.523807116642426e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.0708398562227404e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.745102658972791e-08], ["'mixed heating grid' (megajoule, DK, None)", -1.888342886441146e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001968611341135957], ["'wet wipe' (unit, GLO, None)", 0.000799107220526755], ["'autoclave' (unit, DK, None)", 0.0006289095364281729], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.033009339476301e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.597544103024823e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9132039519453935e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.04638508679953e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.332091503300978e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.239332500251966e-06], ["'steel recycling' (kilogram, RER, None)", 8.523807116642426e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.0708398562227404e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.6717600029553678e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.07593836830599e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.002000869315016442], ["'autoclave' (unit, DK, None)", 0.0034222397221821688], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5509287089577853e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650865549161513e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.711331553881873e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.622712186606784e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010586391695028108], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.831083726457954e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.186813554107304e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0005611259230579066], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.3623316401921666e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.002000869315016442], ["'autoclave' (unit, DK, None)", 0.0034222397221821688], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0001029120919028063], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1105669040587543e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005140887702587915], ["'mixed heating grid' (megajoule, DK, None)", -0.000574847479107119], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.650765708938004e-07]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005758781207094976], ["'autoclave' (unit, DK, None)", 0.006844479444364334], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.3918822319084945e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.02581171162765e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022061693390329118], ["'mixed heating grid' (megajoule, DK, None)", -0.0002466910301090749], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029796135565476464], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.520737429145299e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.599892274408523e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0015806364029800188], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.241055741940746e-06]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.005758781207094976], ["'autoclave' (unit, DK, None)", 0.006844479444364334], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002898932166276234], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3454491332719006e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014707795593552758], ["'mixed heating grid' (megajoule, DK, None)", -0.0016446068673938326], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.241055741940746e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0011940954912842742], ["'mechanical disinfection' (unit, DK, None)", 0.00366884685476506], ["'autoclave' (unit, DK, None)", 0.009582271222110073], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.107893541477906e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00025065986378491], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.881378034933892e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.158664554916363e-08], ["'steel recycling' (kilogram, RER, None)", 8.060738415083725e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.008291856486428e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2945400993155186e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.4475381602286187e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.0011940954912842742], ["'wet wipe' (unit, GLO, None)", 0.009150552542263385], ["'autoclave' (unit, DK, None)", 0.009582271222110073], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.107893541477906e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00025065986378491], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.881378034933892e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.158664554916363e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.239194320473245e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.332491251006905e-06], ["'steel recycling' (kilogram, RER, None)", 8.060738415083725e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.008291856486428e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00014035880490906625], ["'mixed heating grid' (megajoule, DK, None)", -0.0001569474181119497]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0006977085338094229], ["'mechanical disinfection' (unit, DK, None)", 0.00183442342738253], ["'autoclave' (unit, DK, None)", 0.005323484012283373], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.4351991021578675e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001485935964680377], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756069867784e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3652993646044473e-07], ["'steel recycling' (kilogram, RER, None)", 8.060738415083725e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.008291856486428e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.472700496577576e-07], ["'mixed heating grid' (megajoule, DK, None)", -7.237690801143093e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0006977085338094229], ["'wet wipe' (unit, GLO, None)", 0.009150552542263385], ["'autoclave' (unit, DK, None)", 0.005323484012283373], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.4351991021578675e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0001485935964680377], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756069867784e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3652993646044473e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.239194320473245e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.332491251006905e-06], ["'steel recycling' (kilogram, RER, None)", 8.060738415083725e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.008291856486428e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0001397115348594084], ["'mixed heating grid' (megajoule, DK, None)", -0.00015622364903183537]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 1.012221232161074e-09], ["'autoclave' (unit, DK, None)", 1.1977131180437985e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.950993174246752e-11], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.58902161724334e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.7735803003415655e-11], ["'mixed heating grid' (megajoule, DK, None)", -7.29243519708061e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.561389240053527e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.95021307093998e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.9903376021136433e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.076441650432746e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.594648379716398e-13]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 1.012221232161074e-09], ["'autoclave' (unit, DK, None)", 1.1977131180437985e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.275892667023545e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.395613500675145e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8490535335610437e-10], ["'mixed heating grid' (megajoule, DK, None)", -4.861623464720407e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.339066641763257e-13]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.898876267382953e-09], ["'autoclave' (unit, DK, None)", 2.3954262360875962e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2515429269128654e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8943010202505125e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.935059950676051e-11], ["'mixed heating grid' (megajoule, DK, None)", -2.0863254064837637e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.5652916735249994e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.869573320304793e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.995652474042474e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.666032818120413e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4451230675205826e-12]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 2.898876267382953e-09], ["'autoclave' (unit, DK, None)", 2.3954262360875962e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.486166948457337e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.926601590987423e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.290039967117371e-10], ["'mixed heating grid' (megajoule, DK, None)", -1.390883604322509e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4451230675205826e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.909790486269444e-10], ["'mechanical disinfection' (unit, DK, None)", 1.3860851365173518e-09], ["'autoclave' (unit, DK, None)", 3.353596730522636e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1820927462531156e-10], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0191299284022773e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0904578698206744e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.607416833041896e-13], ["'steel recycling' (kilogram, RER, None)", 2.0203091527548655e-13], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.973096386884844e-12], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.656149061125868e-13], ["'mixed heating grid' (megajoule, DK, None)", -1.2242178563219013e-12]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 5.909790486269444e-10], ["'wet wipe' (unit, GLO, None)", 3.380508351429574e-10], ["'autoclave' (unit, DK, None)", 3.353596730522636e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1820927462531156e-10], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0191299284022773e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0904578698206744e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.607416833041896e-13], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.702563721644978e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.222688418602571e-11], ["'steel recycling' (kilogram, RER, None)", 2.0203091527548655e-13], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.973096386884844e-12], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.0483682818604775e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3273420835131743e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.500147032964413e-10], ["'mechanical disinfection' (unit, DK, None)", 6.930425682586759e-10], ["'autoclave' (unit, DK, None)", 1.8631092947347977e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.007560359773257e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.1969597895217875e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1809157396413488e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.689907356816303e-13], ["'steel recycling' (kilogram, RER, None)", 2.0203091527548655e-13], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.973096386884844e-12], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3280745305629275e-13], ["'mixed heating grid' (megajoule, DK, None)", -6.121089281609506e-13]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 3.500147032964413e-10], ["'wet wipe' (unit, GLO, None)", 3.380508351429574e-10], ["'autoclave' (unit, DK, None)", 1.8631092947347977e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.007560359773257e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.1969597895217875e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1809157396413488e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.689907356816303e-13], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.702563721644978e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.222688418602571e-11], ["'steel recycling' (kilogram, RER, None)", 2.0203091527548655e-13], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.973096386884844e-12], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.025087536554845e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3212209942315645e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.961592806133371e-07], ["'autoclave' (unit, DK, None)", 5.036564292531851e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.999729647184074e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.614965908890144e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.51800670551615e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.5326733200986972e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.5966022055271143e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.104782084980007e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.165894761720219e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.9524012864453665e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.436020034074674e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 4.961592806133371e-07], ["'autoclave' (unit, DK, None)", 5.036564292531851e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9904748126174694e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4110827667551693e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.345337803677433e-08], ["'mixed heating grid' (megajoule, DK, None)", -1.0217822133991314e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.090452966208579e-10]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.419896828037126e-06], ["'autoclave' (unit, DK, None)", 1.0073128585063698e-06], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.49456152426892e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0911227376374837e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.723049114889744e-08], ["'mixed heating grid' (megajoule, DK, None)", -4.384893661916742e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -7.308317465887574e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.3250722946000206e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.512117645347014e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 5.49972193364892e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2620196236180796e-09]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 1.419896828037126e-06], ["'autoclave' (unit, DK, None)", 1.0073128585063698e-06], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.606971303147802e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.26309664263249e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8153660765931641e-07], ["'mixed heating grid' (megajoule, DK, None)", -2.923262441277828e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2620196236180796e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.864716522275161e-07], ["'mechanical disinfection' (unit, DK, None)", 5.68237473166653e-07], ["'autoclave' (unit, DK, None)", 1.4102380019089186e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.7552410325653466e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.295068438612883e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.556767888891517e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.296480506766242e-11], ["'steel recycling' (kilogram, RER, None)", 2.282463765629305e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.6141435456743537e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5978357641284472e-10], ["'mixed heating grid' (megajoule, DK, None)", -2.572975961615881e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 3.864716522275161e-07], ["'wet wipe' (unit, GLO, None)", 8.635586268007549e-08], ["'autoclave' (unit, DK, None)", 1.4102380019089186e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.7552410325653466e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.295068438612883e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.556767888891517e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.296480506766242e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.222571298061636e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5919115929057512e-08], ["'steel recycling' (kilogram, RER, None)", 2.282463765629305e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.6141435456743537e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7324323782060928e-08], ["'mixed heating grid' (megajoule, DK, None)", -2.7897152913464157e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.3008442236571286e-07], ["'mechanical disinfection' (unit, DK, None)", 2.841187365833265e-07], ["'autoclave' (unit, DK, None)", 7.834655566160658e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2261432772183004e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.677291212879028e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535777783034e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.388361966360713e-10], ["'steel recycling' (kilogram, RER, None)", 2.282463765629305e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.6141435456743537e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.989178820642215e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.2864879808079405e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 2.3008442236571286e-07], ["'wet wipe' (unit, GLO, None)", 8.635586268007549e-08], ["'autoclave' (unit, DK, None)", 7.834655566160658e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2261432772183004e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.677291212879028e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535777783034e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.388361966360713e-10], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.222571298061636e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5919115929057512e-08], ["'steel recycling' (kilogram, RER, None)", 2.282463765629305e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.6141435456743537e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.7244431993854496e-08], ["'mixed heating grid' (megajoule, DK, None)", -2.7768504115383357e-08]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05715518803091386], ["'autoclave' (unit, DK, None)", 0.010079048886912913], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8025792803859035e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045943887524e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022768808252552602], ["'mixed heating grid' (megajoule, DK, None)", -0.00047369364106555526], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04099956387738334], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003750617933941681], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00035742174975183323], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.006411173221009154], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.9142352891315633e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H200' (unit, GLO, None)", 0.05715518803091386], ["'autoclave' (unit, DK, None)", 0.010079048886912913], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00011961040084803658], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3961098533216726e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0015179205501701734], ["'mixed heating grid' (megajoule, DK, None)", -0.003157957607103702], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.8964639143244e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.1635073490662158], ["'autoclave' (unit, DK, None)", 0.02015809777382582], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.1045002052049425e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.3180212069165095e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006514030203747944], ["'mixed heating grid' (megajoule, DK, None)", -0.0013552113272676152], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1153961234959465], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0011288267568173992], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.001076690002691217], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.018059642876082124], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.445878243447074e-05]]</t>
-  </si>
-  <si>
-    <t>[["'H400' (unit, GLO, None)", 0.1635073490662158], ["'autoclave' (unit, DK, None)", 0.02015809777382582], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0003369307066141876], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.2056129006526306e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004342686802498633], ["'mixed heating grid' (megajoule, DK, None)", -0.0090347421817841], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.445878243447074e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006473307901383342], ["'mechanical disinfection' (unit, DK, None)", 0.0113637805057696], ["'autoclave' (unit, DK, None)", 0.02822133688335616], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00046116208393189826], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018782280447424094], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.835056634456907e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.5801046072049177e-06], ["'steel recycling' (kilogram, RER, None)", 3.1503023466271207e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.0509444092706923e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.822314614616422e-06], ["'mixed heating grid' (megajoule, DK, None)", -7.952133932581862e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (large)' (unit, GLO, None)", 0.006473307901383342], ["'wet wipe' (unit, GLO, None)", 0.005317235802914152], ["'autoclave' (unit, DK, None)", 0.02822133688335616], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00046116208393189826], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018782280447424094], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.835056634456907e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.5801046072049177e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.956229755766603e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.21778170006056e-06], ["'steel recycling' (kilogram, RER, None)", 3.1503023466271207e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.0509444092706923e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00041442942677302026], ["'mixed heating grid' (megajoule, DK, None)", -0.0008621996459160934]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0038061698496163992], ["'mechanical disinfection' (unit, DK, None)", 0.0056818902528848], ["'autoclave' (unit, DK, None)", 0.01567852049075342], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002733813526083195], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011134317873678135], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.670113268913815e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.9910718384529e-06], ["'steel recycling' (kilogram, RER, None)", 3.1503023466271207e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.0509444092706923e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.911157307308206e-06], ["'mixed heating grid' (megajoule, DK, None)", -3.976066966290931e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox (small)' (unit, GLO, None)", 0.0038061698496163992], ["'wet wipe' (unit, GLO, None)", 0.005317235802914152], ["'autoclave' (unit, DK, None)", 0.01567852049075342], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002733813526083195], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011134317873678135], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.670113268913815e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.9910718384529e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.956229755766603e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.21778170006056e-06], ["'steel recycling' (kilogram, RER, None)", 3.1503023466271207e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.0509444092706923e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0004125182694657118], ["'mixed heating grid' (megajoule, DK, None)", -0.0008582235789498022]]</t>
+    <t>[["'H400' (unit, GLO, None)", 0.028066665006618117], ["'autoclave' (unit, DK, None)", 0.03490187122089659], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00026110121339146245], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2389214415564775e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0010495917363329622], ["'mixed heating grid' (megajoule, DK, None)", -0.0006731435400799321], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.014569800952730234], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.001894931129893285], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0016823089424834454], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.021634790378302585], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.399884780129764e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.028066665006618117], ["'autoclave' (unit, DK, None)", 0.03490187122089659], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0017234403524188941], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0002155999379029996], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006997278242219754], ["'mixed heating grid' (megajoule, DK, None)", -0.00448762360053288], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.399884780129764e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.023409546642424534], ["'mechanical disinfection' (unit, DK, None)", 0.01975198100581723], ["'autoclave' (unit, DK, None)", 0.04886261970925525], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006233027828142308], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.007859842390364743], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7905412981674314e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8924715295402565e-06], ["'steel recycling' (kilogram, RER, None)", 0.0006600604478307561], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0006694211482204711], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.158813680135868e-06], ["'mixed heating grid' (megajoule, DK, None)", -3.949884035695385e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.023409546642424534], ["'wet wipe' (unit, GLO, None)", 0.0011988362195746848], ["'autoclave' (unit, DK, None)", 0.04886261970925525], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0006233027828142308], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.007859842390364743], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7905412981674314e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.8924715295402565e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593732977544e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.725478091024648e-05], ["'steel recycling' (kilogram, RER, None)", 0.0006600604478307561], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0006694211482204711], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006677612599706636], ["'mixed heating grid' (megajoule, DK, None)", -0.0004282609732002439]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.014171018929295296], ["'mechanical disinfection' (unit, DK, None)", 0.009875990502908615], ["'autoclave' (unit, DK, None)", 0.027145899838475134], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00036949993025759596], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004659390740986055], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082596334863e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.840362678029295e-06], ["'steel recycling' (kilogram, RER, None)", 0.0006600604478307561], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0006694211482204711], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.079406840067926e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.9749420178476926e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.014171018929295296], ["'wet wipe' (unit, GLO, None)", 0.0011988362195746848], ["'autoclave' (unit, DK, None)", 0.027145899838475134], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00036949993025759596], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.004659390740986055], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.581082596334863e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.840362678029295e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.2879593732977544e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.725478091024648e-05], ["'steel recycling' (kilogram, RER, None)", 0.0006600604478307561], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0006694211482204711], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000664681853130595], ["'mixed heating grid' (megajoule, DK, None)", -0.00042628603118239613]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.152659717202204], ["'autoclave' (unit, DK, None)", 0.529863448841897], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.017325663911286596], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.020897777183670793], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006504041855271365], ["'mixed heating grid' (megajoule, DK, None)", -0.009498458889625425], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.06957010388139193], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.007284334371745217], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.01069215678313526], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.24788885410562744], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.00021013730706507416]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.152659717202204], ["'autoclave' (unit, DK, None)", 0.529863448841897], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.11496468576648114], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.013938242213329052], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.04336027903514244], ["'mixed heating grid' (megajoule, DK, None)", -0.0633230592641695], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 0.00025494173343468794]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.43711039858391754], ["'autoclave' (unit, DK, None)", 1.0597268976837935], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.049062394066540546], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.006307677700392377], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01860770428637989], ["'mixed heating grid' (megajoule, DK, None)", -0.027174565927991244], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.19580989503040777], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.021923724808165217], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.032208835426500985], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.6982784622693732], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005978273387705748]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.43711039858391754], ["'autoclave' (unit, DK, None)", 1.0597268976837935], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.32384418525769343], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.04198727709379728], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.12405136190919937], ["'mixed heating grid' (megajoule, DK, None)", -0.18116377285327492], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 0.0005978273387705748]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.14223949298077632], ["'mechanical disinfection' (unit, DK, None)", 0.5939082907087039], ["'autoclave' (unit, DK, None)", 1.4836176567573116], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.07603359543730803], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.06470298475506672], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037119225755434564], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.93009963529933e-05], ["'steel recycling' (kilogram, RER, None)", 7.435554017136028e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0005303839173977184], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00010918662918905098], ["'mixed heating grid' (megajoule, DK, None)", -0.00015945541737380224]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.14223949298077632], ["'wet wipe' (unit, GLO, None)", 0.02789066216886283], ["'autoclave' (unit, DK, None)", 1.4836176567573116], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.07603359543730803], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.06470298475506672], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00037119225755434564], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.93009963529933e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008669821550514296], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009202690869873376], ["'steel recycling' (kilogram, RER, None)", 7.435554017136028e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0005303839173977184], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.011838416433085187], ["'mixed heating grid' (megajoule, DK, None)", -0.017288743570552267]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.08426939928463106], ["'mechanical disinfection' (unit, DK, None)", 0.29695414535435194], ["'autoclave' (unit, DK, None)", 0.8242320315318397], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.04507345223852922], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03835655641791177], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007423845151086913], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.576765717954378e-05], ["'steel recycling' (kilogram, RER, None)", 7.435554017136028e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0005303839173977184], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.459331459452534e-05], ["'mixed heating grid' (megajoule, DK, None)", -7.972770868690112e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.08426939928463106], ["'wet wipe' (unit, GLO, None)", 0.02789066216886283], ["'autoclave' (unit, DK, None)", 0.8242320315318397], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.04507345223852922], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.03835655641791177], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0007423845151086913], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.576765717954378e-05], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.0008669821550514296], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.009202690869873376], ["'steel recycling' (kilogram, RER, None)", 7.435554017136028e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -0.0005303839173977184], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.011783823118490648], ["'mixed heating grid' (megajoule, DK, None)", -0.01720901586186536]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.011087994586187352], ["'autoclave' (unit, DK, None)", 0.05139113219371798], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.019082145165691e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.645331611995765e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0013964064999887442], ["'mixed heating grid' (megajoule, DK, None)", -0.00020636331661906353], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0028446495632353254], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.0003606311013931224], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0008518831846287736], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.015566512597078542], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.457986378116396e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.011087994586187352], ["'autoclave' (unit, DK, None)", 0.05139113219371798], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.6668675916520006e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.0983083320375424e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.009309376666591629], ["'mixed heating grid' (megajoule, DK, None)", -0.0013757554441270903], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.8814514924870296e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.03189183543875633], ["'autoclave' (unit, DK, None)", 0.10278226438743593], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1381139158740229e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4021230278409236e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00399504182069646], ["'mixed heating grid' (megajoule, DK, None)", -0.0005903940436809976], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008006464002483532], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.0010853945770084267], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.002566195563049538], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.04384933125937618], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.1217499221286834e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.03189183543875633], ["'autoclave' (unit, DK, None)", 0.10278226438743593], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.512303075076059e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.3332809452025e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.02663361213797642], ["'mixed heating grid' (megajoule, DK, None)", -0.00393596029120665], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.1217499221286834e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008846292214428113], ["'mechanical disinfection' (unit, DK, None)", 0.06180787310264136], ["'autoclave' (unit, DK, None)", 0.14389517014241035], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00044577131155524295], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000808017695301223], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6449234556446617e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3948322624894905e-06], ["'steel recycling' (kilogram, RER, None)", 1.4838841722715082e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.291873308029708e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.3442179817443708e-05], ["'mixed heating grid' (megajoule, DK, None)", -3.4643250199330515e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.008846292214428113], ["'wet wipe' (unit, GLO, None)", 0.0014076677504756042], ["'autoclave' (unit, DK, None)", 0.14389517014241035], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00044577131155524295], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.000808017695301223], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6449234556446617e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3948322624894905e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6263612238284712e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.045650618126575e-06], ["'steel recycling' (kilogram, RER, None)", 1.4838841722715082e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.291873308029708e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0025416874652083544], ["'mixed heating grid' (megajoule, DK, None)", -0.0003756148765661891]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005217770009538161], ["'mechanical disinfection' (unit, DK, None)", 0.03090393655132068], ["'autoclave' (unit, DK, None)", 0.07994176119022797], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00026425755358706665], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00047900072050486724], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2898469112893233e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.3341609265687076e-06], ["'steel recycling' (kilogram, RER, None)", 1.4838841722715082e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.291873308029708e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.1721089908721823e-05], ["'mixed heating grid' (megajoule, DK, None)", -1.7321625099665258e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.005217770009538161], ["'wet wipe' (unit, GLO, None)", 0.0014076677504756042], ["'autoclave' (unit, DK, None)", 0.07994176119022797], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00026425755358706665], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00047900072050486724], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.2898469112893233e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.3341609265687076e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.6263612238284712e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.045650618126575e-06], ["'steel recycling' (kilogram, RER, None)", 1.4838841722715082e-05], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -2.291873308029708e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0025299663752996297], ["'mixed heating grid' (megajoule, DK, None)", -0.00037388271405622254]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0041080422132130775], ["'autoclave' (unit, DK, None)", 0.034665509978416796], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.800015699411145e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.21800745164866e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0009596384912973704], ["'mixed heating grid' (megajoule, DK, None)", -0.005473072728911071], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0011099415216293102], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.00011950519152178693], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00016944016467723613], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0023769670802995272], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6169705248158913e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0041080422132130775], ["'autoclave' (unit, DK, None)", 0.034665509978416796], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.8579543425999183e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1463224012372255e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.006397589941982469], ["'mixed heating grid' (megajoule, DK, None)", -0.03648715152607381], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 2.700849671876376e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.011974447192941006], ["'autoclave' (unit, DK, None)", 0.06933101995683356], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.929016419827822e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.713068363233111e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002745472686867293], ["'mixed heating grid' (megajoule, DK, None)", -0.015658158594857065], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0031240075939897804], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.00035967581914324217], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.0005104181026728296], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.006695681916336698], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.445115512055335e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.011974447192941006], ["'autoclave' (unit, DK, None)", 0.06933101995683356], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.233674204506813e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.4655379074408855e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.018303151245781968], ["'mixed heating grid' (megajoule, DK, None)", -0.10438772396571375], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.445115512055335e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0025072388804753248], ["'mechanical disinfection' (unit, DK, None)", 0.04155330652290485], ["'autoclave' (unit, DK, None)", 0.09706342793956704], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003414505931111522], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005506981837799754], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.554129597118652e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.894397405589214e-07], ["'steel recycling' (kilogram, RER, None)", 1.1045610778622551e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.334947424931344e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6109935089040817e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.187923077278331e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0025072388804753248], ["'wet wipe' (unit, GLO, None)", 0.012046855371044194], ["'autoclave' (unit, DK, None)", 0.09706342793956704], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0003414505931111522], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0005506981837799754], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.554129597118652e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.894397405589214e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994015730002735e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.417104198891153e-06], ["'steel recycling' (kilogram, RER, None)", 1.1045610778622551e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.334947424931344e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0017466984896458467], ["'mixed heating grid' (megajoule, DK, None)", -0.00996188455966015]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0014889160337899087], ["'mechanical disinfection' (unit, DK, None)", 0.020776653261452425], ["'autoclave' (unit, DK, None)", 0.053924126633092796], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00020241522069152707], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00032645922031818], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7108259194237304e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.190455218490242e-07], ["'steel recycling' (kilogram, RER, None)", 1.1045610778622551e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.334947424931344e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.054967544520387e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.5939615386391654e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0014889160337899087], ["'wet wipe' (unit, GLO, None)", 0.012046855371044194], ["'autoclave' (unit, DK, None)", 0.053924126633092796], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00020241522069152707], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00032645922031818], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.7108259194237304e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.190455218490242e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4994015730002735e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.417104198891153e-06], ["'steel recycling' (kilogram, RER, None)", 1.1045610778622551e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.334947424931344e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0017386435221013244], ["'mixed heating grid' (megajoule, DK, None)", -0.009915944944273758]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.002434545193494584], ["'autoclave' (unit, DK, None)", 0.004014487840968371], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0305279708610647e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1005283815955193e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.6255176365601204e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.880157172382663e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0012383564703484248], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.00011728099202726097], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00012179596542272012], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0016092924269106384], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.218120935276382e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.002434545193494584], ["'autoclave' (unit, DK, None)", 0.004014487840968371], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.838082797302392e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.340221407522408e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00030836784243734133], ["'mixed heating grid' (megajoule, DK, None)", -0.00032534381149217756], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.1447087601333845e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.006964031577580463], ["'autoclave' (unit, DK, None)", 0.008028975681936739], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9182240670177817e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.321778326100237e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00013233350317816252], ["'mixed heating grid' (megajoule, DK, None)", -0.00013961859956536778], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0034854403966760304], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.00035298162648981455], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00036689568676170155], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0045332181039736295], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4845223800042618e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.006964031577580463], ["'autoclave' (unit, DK, None)", 0.008028975681936739], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00019262205062823643], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.211153353847878e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0008822233545210842], ["'mixed heating grid' (megajoule, DK, None)", -0.0009307906637691184], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.4845223800042618e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002172926234717962], ["'mechanical disinfection' (unit, DK, None)", 0.0035776283310024978], ["'autoclave' (unit, DK, None)", 0.011240565954711441], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00024104890433716874], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007747218602506131], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.6581690360472427e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.75920719224159e-07], ["'steel recycling' (kilogram, RER, None)", 2.6090498862520383e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.282662712944464e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.765089620097986e-07], ["'mixed heating grid' (megajoule, DK, None)", -8.192565844781157e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.002172926234717962], ["'wet wipe' (unit, GLO, None)", 0.0002415637210049765], ["'autoclave' (unit, DK, None)", 0.011240565954711441], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00024104890433716874], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0007747218602506131], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.6581690360472427e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.75920719224159e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.3726977105735935e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.84636351528302e-06], ["'steel recycling' (kilogram, RER, None)", 2.6090498862520383e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.282662712944464e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.419196127373938e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.882681592639132e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001300683374099547], ["'mechanical disinfection' (unit, DK, None)", 0.0017888141655012489], ["'autoclave' (unit, DK, None)", 0.006244758863728578], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0001428961265648632], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00045926262680741695], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.316338072094485e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6331397484140323e-06], ["'steel recycling' (kilogram, RER, None)", 2.6090498862520383e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.282662712944464e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.882544810048983e-07], ["'mixed heating grid' (megajoule, DK, None)", -4.0962829223905784e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.001300683374099547], ["'wet wipe' (unit, GLO, None)", 0.0002415637210049765], ["'autoclave' (unit, DK, None)", 0.006244758863728578], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0001428961265648632], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00045926262680741695], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.316338072094485e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6331397484140323e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.3726977105735935e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.84636351528302e-06], ["'steel recycling' (kilogram, RER, None)", 2.6090498862520383e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -4.282662712944464e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.380370679273438e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.841718763415224e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.6561458467617604e-08], ["'autoclave' (unit, DK, None)", 2.0754074586812853e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9917330483243673e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.4017374942140818e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.612973095783043e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.2152065317873592e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6281403142865644e-08], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -2.202134672510118e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.7932744220771256e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 2.7481261622104113e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2615856900832307e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.6561458467617604e-08], ["'autoclave' (unit, DK, None)", 2.0754074586812853e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3216172563647671e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6018928057739794e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.075315397188696e-08], ["'mixed heating grid' (megajoule, DK, None)", -8.101376878582396e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.0864450901562398e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.3356849257077837e-07], ["'autoclave' (unit, DK, None)", 4.150814917362569e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.640141248993302e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.249281060517733e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.319746107995732e-08], ["'mixed heating grid' (megajoule, DK, None)", -3.4766387261253326e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.582514129614503e-08], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -6.627783965807151e-09], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.402023362240584e-09], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.741200456930738e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.589131441091216e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.3356849257077837e-07], ["'autoclave' (unit, DK, None)", 4.150814917362569e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.7228655108866684e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.825509277365908e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.79830738663822e-08], ["'mixed heating grid' (megajoule, DK, None)", -2.3177591507502216e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.589131441091216e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.1588611854432645e-08], ["'mechanical disinfection' (unit, DK, None)", 2.2741986366167732e-07], ["'autoclave' (unit, DK, None)", 5.8111408843076e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1830130195306297e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0545409576194588e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.606821897354974e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.359484629237941e-11], ["'steel recycling' (kilogram, RER, None)", 1.304447015558239e-11], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.0361651261325479e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.744030467148909e-11], ["'mixed heating grid' (megajoule, DK, None)", -2.0400284611766688e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.1588611854432645e-08], ["'wet wipe' (unit, GLO, None)", 1.0280456271495988e-07], ["'autoclave' (unit, DK, None)", 5.8111408843076e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.1830130195306297e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.0545409576194588e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.606821897354974e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.359484629237941e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.3346627495828518e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0576458690117057e-09], ["'steel recycling' (kilogram, RER, None)", 1.304447015558239e-11], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.0361651261325479e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.396363018211133e-09], ["'mixed heating grid' (megajoule, DK, None)", -2.211873984766e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 1.8683864233467936e-08], ["'mechanical disinfection' (unit, DK, None)", 1.1370993183083866e-07], ["'autoclave' (unit, DK, None)", 3.22841160239311e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.2941112741805256e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.251420995344739e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.213643794709948e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.9484438211782127e-11], ["'steel recycling' (kilogram, RER, None)", 1.304447015558239e-11], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.0361651261325479e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.872015233574444e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.0200142305883344e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 1.8683864233467936e-08], ["'wet wipe' (unit, GLO, None)", 1.0280456271495988e-07], ["'autoclave' (unit, DK, None)", 3.22841160239311e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.2941112741805256e-09], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.251420995344739e-09], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.213643794709948e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.9484438211782127e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.3346627495828518e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0576458690117057e-09], ["'steel recycling' (kilogram, RER, None)", 1.304447015558239e-11], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.0361651261325479e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.35764286587538e-09], ["'mixed heating grid' (megajoule, DK, None)", -2.2016738424601163e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.00030868477964655135], ["'autoclave' (unit, DK, None)", 0.00022786518000064338], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.89386434251763e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.893489123360138e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.749811398937284e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.1911103531447931e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0001442707536563636], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -1.5458261796960497e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 4.742408040581908e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 7.560535805498089e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.4527956919667074e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.00030868477964655135], ["'autoclave' (unit, DK, None)", 0.00022786518000064338], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.910881946904222e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.597767516222771e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4998742659581893e-05], ["'mixed heating grid' (megajoule, DK, None)", -7.940735687631955e-05], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.5687592283095243e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008831184111937338], ["'autoclave' (unit, DK, None)", 0.00045573036000128654], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6690101829746189e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.080695340904115e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0728003169993478e-05], ["'mixed heating grid' (megajoule, DK, None)", -3.4077008907623485e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0004060600682381095], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -4.652486560250247e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.4285933437241235e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0002129728395914955], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.978048503411613e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0008831184111937338], ["'autoclave' (unit, DK, None)", 0.00045573036000128654], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1016568864518938e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.3850221266200644e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.152002113328991e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00022718005938415656], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 6.978048503411613e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002438067024119086], ["'mechanical disinfection' (unit, DK, None)", 0.000249859176480511], ["'autoclave' (unit, DK, None)", 0.0006380225040018015], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.9858829395257682e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.903157851025425e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.438394389090101e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.587348904912418e-08], ["'steel recycling' (kilogram, RER, None)", 4.768548574473201e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.41040433751676e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.294997416303669e-08], ["'mixed heating grid' (megajoule, DK, None)", -1.999576991446555e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0002438067024119086], ["'wet wipe' (unit, GLO, None)", 4.527322175360308e-05], ["'autoclave' (unit, DK, None)", 0.0006380225040018015], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.9858829395257682e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.903157851025425e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.438394389090101e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.587348904912418e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.749437136537388e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.035664935057675e-07], ["'steel recycling' (kilogram, RER, None)", 4.768548574473201e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.41040433751676e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.825268021633473e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.1680150115975673e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00014474665837958372], ["'mechanical disinfection' (unit, DK, None)", 0.0001249295882402555], ["'autoclave' (unit, DK, None)", 0.00035445694666766744], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1772506523097264e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.685068565848209e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.876788778180202e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.67662955492112e-08], ["'steel recycling' (kilogram, RER, None)", 4.768548574473201e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.41040433751676e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.147498708151827e-08], ["'mixed heating grid' (megajoule, DK, None)", -9.997884957232775e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00014474665837958372], ["'wet wipe' (unit, GLO, None)", 4.527322175360308e-05], ["'autoclave' (unit, DK, None)", 0.00035445694666766744], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1772506523097264e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -4.685068565848209e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.876788778180202e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 7.67662955492112e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.749437136537388e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.035664935057675e-07], ["'steel recycling' (kilogram, RER, None)", 4.768548574473201e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.41040433751676e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.793793034551947e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.158017126640334e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005812956186691691], ["'autoclave' (unit, DK, None)", 0.00039441669046076877], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.208840167125899e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.058229286396022e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.023831935535743e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.1815357036117434e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002977488873338816], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -3.2272843855823155e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.028043455913636e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0001444347696702199], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.178881256756618e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0005812956186691691], ["'autoclave' (unit, DK, None)", 0.00039441669046076877], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.792781793139615e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.373699716706337e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.015887957023829e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00014543571357411624], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 9.57075037278003e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001663931908163918], ["'autoclave' (unit, DK, None)", 0.0007888333809215372], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1918491314384555e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.526749940572744e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.5816684443743396e-05], ["'mixed heating grid' (megajoule, DK, None)", -6.241253080203825e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008380349477940376], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -9.713186014859395e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.7195894316988804e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00040685850611329555], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6113336233620884e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.001663931908163918], ["'autoclave' (unit, DK, None)", 0.0007888333809215372], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.866990966590466e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.016286434606173e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00017211122962495609], ["'mixed heating grid' (megajoule, DK, None)", -0.00041608353868025495], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6113336233620884e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003254867804003925], ["'mechanical disinfection' (unit, DK, None)", 0.00045337132789411913], ["'autoclave' (unit, DK, None)", 0.0011043667332901526], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.6765598737954957e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00010948847488999281], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.501683632918703e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.716683171754165e-07], ["'steel recycling' (kilogram, RER, None)", 8.149766264620794e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.026670221300295e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.514876154450191e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.66225395274601e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003254867804003925], ["'wet wipe' (unit, GLO, None)", 0.0005215115272185457], ["'autoclave' (unit, DK, None)", 0.0011043667332901526], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.6765598737954957e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00010948847488999281], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.501683632918703e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.716683171754165e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945298345613e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2274771169450366e-06], ["'steel recycling' (kilogram, RER, None)", 8.149766264620794e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.026670221300295e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6424845142788232e-05], ["'mixed heating grid' (megajoule, DK, None)", -3.970750603652409e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00019279184287238535], ["'mechanical disinfection' (unit, DK, None)", 0.00022668566394705957], ["'autoclave' (unit, DK, None)", 0.0006135370740500847], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 9.938809412066303e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.49058289988742e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9003367265837406e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.872757456624144e-07], ["'steel recycling' (kilogram, RER, None)", 8.149766264620794e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.026670221300295e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.574380772250936e-08], ["'mixed heating grid' (megajoule, DK, None)", -1.831126976373005e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.00019279184287238535], ["'wet wipe' (unit, GLO, None)", 0.0005215115272185457], ["'autoclave' (unit, DK, None)", 0.0006135370740500847], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 9.938809412066303e-06], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.49058289988742e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9003367265837406e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.872757456624144e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.310945298345613e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2274771169450366e-06], ["'steel recycling' (kilogram, RER, None)", 8.149766264620794e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.026670221300295e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6349101335065704e-05], ["'mixed heating grid' (megajoule, DK, None)", -3.952439333888678e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.000615872533967301], ["'autoclave' (unit, DK, None)", 0.0004042989877038254], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.232814578716672e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.0851508859888395e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.22722356051709e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.2497005836221522e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00031883610957929916], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -3.479621124705844e-05], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.486660510903029e-06], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0001523782405125032], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 9.733646991189599e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.000615872533967301], ["'autoclave' (unit, DK, None)", 0.0004042989877038254], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8086900475596603e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3916556826732904e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.15148237367806e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0001499800389081435], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.012419265467213e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0017632082592012011], ["'autoclave' (unit, DK, None)", 0.0008085979754076505], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.198638147057151e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.534875817881035e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.6398576641886588e-05], ["'mixed heating grid' (megajoule, DK, None)", -6.436269034617196e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0008973864011337891], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.00010472646103483608], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 2.8577422997080648e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.00042923448031691045], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.7691609636327366e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.0017632082592012011], ["'autoclave' (unit, DK, None)", 0.0008085979754076505], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.911802950872284e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0216954532399594e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00017599051094591072], ["'mixed heating grid' (megajoule, DK, None)", -0.000429084602307813], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.7691609636327366e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003323952591725371], ["'mechanical disinfection' (unit, DK, None)", 0.00046454154973013317], ["'autoclave' (unit, DK, None)", 0.0011320371655707112], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.742564864680194e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011129278417693158], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.566019759726968e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.82043840879527e-07], ["'steel recycling' (kilogram, RER, None)", 8.523807116642426e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.07083985622274e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5490205317945624e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.776685772882292e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0003323952591725371], ["'wet wipe' (unit, GLO, None)", 0.0007991072205267549], ["'autoclave' (unit, DK, None)", 0.0011320371655707112], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.742564864680194e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00011129278417693158], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.566019759726968e-08], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.82043840879527e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.332091503300979e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2393325002519657e-06], ["'steel recycling' (kilogram, RER, None)", 8.523807116642426e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.07083985622274e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6795051056143414e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.094821797170402e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001968611341135956], ["'mechanical disinfection' (unit, DK, None)", 0.00023227077486506658], ["'autoclave' (unit, DK, None)", 0.0006289095364281728], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0330093394763009e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.597544103024821e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9132039519453935e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.0463850867995294e-07], ["'steel recycling' (kilogram, RER, None)", 8.523807116642426e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.07083985622274e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.745102658972791e-08], ["'mixed heating grid' (megajoule, DK, None)", -1.888342886441146e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.0001968611341135956], ["'wet wipe' (unit, GLO, None)", 0.0007991072205267549], ["'autoclave' (unit, DK, None)", 0.0006289095364281728], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.0330093394763009e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -6.597544103024821e-05], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9132039519453935e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.0463850867995294e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.332091503300979e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2393325002519657e-06], ["'steel recycling' (kilogram, RER, None)", 8.523807116642426e-08], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.07083985622274e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.6717600029553668e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.07593836830599e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0020008693150164424], ["'autoclave' (unit, DK, None)", 0.003422239722182168], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.5509287089577846e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.6650865549161513e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.711331553881874e-05], ["'mixed heating grid' (megajoule, DK, None)", -8.622712186606783e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0010586391695028105], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.0001249232287881473], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.186813554107304e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0005611259230579066], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.3623316401921677e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.0020008693150164424], ["'autoclave' (unit, DK, None)", 0.003422239722182168], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00010291209190280627], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1105669040587543e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0005140887702587915], ["'mixed heating grid' (megajoule, DK, None)", -0.000574847479107119], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 3.6507657089380027e-07]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005758781207094976], ["'autoclave' (unit, DK, None)", 0.006844479444364333], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.391882231908493e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.02581171162765e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002206169339032912], ["'mixed heating grid' (megajoule, DK, None)", -0.00024669103010907485], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002979613556547646], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.0003759825332458802], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 9.599892274408523e-05], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.0015806364029800188], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2410557419407465e-06]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.005758781207094976], ["'autoclave' (unit, DK, None)", 0.006844479444364333], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00028989321662762333], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.3454491332719006e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0014707795593552758], ["'mixed heating grid' (megajoule, DK, None)", -0.0016446068673938324], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2410557419407465e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0011940954912842742], ["'mechanical disinfection' (unit, DK, None)", 0.0036688468547650603], ["'autoclave' (unit, DK, None)", 0.009582271222110071], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.107893541477906e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00025065986378490995], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.881378034933892e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.158664554916364e-08], ["'steel recycling' (kilogram, RER, None)", 8.060738415083725e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.008291856486428e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2945400993155186e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.4475381602286185e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.0011940954912842742], ["'wet wipe' (unit, GLO, None)", 0.009150552542263385], ["'autoclave' (unit, DK, None)", 0.009582271222110071], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 4.107893541477906e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00025065986378490995], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.881378034933892e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.158664554916364e-08], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.239194320473245e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.332491251006905e-06], ["'steel recycling' (kilogram, RER, None)", 8.060738415083725e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.008291856486428e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00014035880490906628], ["'mixed heating grid' (megajoule, DK, None)", -0.00015694741811194969]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.000697708533809423], ["'mechanical disinfection' (unit, DK, None)", 0.0018344234273825301], ["'autoclave' (unit, DK, None)", 0.005323484012283373], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.4351991021578675e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00014859359646803767], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756069867784e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3652993646044475e-07], ["'steel recycling' (kilogram, RER, None)", 8.060738415083725e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.008291856486428e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.472700496577576e-07], ["'mixed heating grid' (megajoule, DK, None)", -7.237690801143092e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.000697708533809423], ["'wet wipe' (unit, GLO, None)", 0.009150552542263385], ["'autoclave' (unit, DK, None)", 0.005323484012283373], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.4351991021578675e-05], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.00014859359646803767], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.1762756069867784e-06], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3652993646044475e-07], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.239194320473245e-06], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.332491251006905e-06], ["'steel recycling' (kilogram, RER, None)", 8.060738415083725e-07], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.008291856486428e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00013971153485940835], ["'mixed heating grid' (megajoule, DK, None)", -0.00015622364903183534]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 1.0122212321610742e-09], ["'autoclave' (unit, DK, None)", 1.1977131180437985e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.950993174246753e-11], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.58902161724334e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.773580300341566e-11], ["'mixed heating grid' (megajoule, DK, None)", -7.29243519708061e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -5.561389240053527e-10], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -5.78972785659031e-11], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.9903376021136437e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 3.076441650432746e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.594648379716396e-13]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 1.0122212321610742e-09], ["'autoclave' (unit, DK, None)", 1.1977131180437985e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.275892667023546e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.395613500675145e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.849053533561044e-10], ["'mixed heating grid' (megajoule, DK, None)", -4.861623464720408e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 8.339066641763257e-13]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.898876267382953e-09], ["'autoclave' (unit, DK, None)", 2.3954262360875962e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2515429269128656e-10], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.8943010202505125e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.935059950676052e-11], ["'mixed heating grid' (megajoule, DK, None)", -2.086325406483764e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.5652916735249994e-09], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -1.742539451983491e-10], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 5.995652474042475e-11], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 8.666032818120413e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.445123067520582e-12]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 2.898876267382953e-09], ["'autoclave' (unit, DK, None)", 2.3954262360875962e-09], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.4861669484573372e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.926601590987423e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.290039967117372e-10], ["'mixed heating grid' (megajoule, DK, None)", -1.3908836043225092e-09], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.445123067520582e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.909790486269445e-10], ["'mechanical disinfection' (unit, DK, None)", 1.3860851365173516e-09], ["'autoclave' (unit, DK, None)", 3.353596730522636e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1820927462531156e-10], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0191299284022773e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0904578698206744e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6074168330418957e-13], ["'steel recycling' (kilogram, RER, None)", 2.020309152754866e-13], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.9730963868848443e-12], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.656149061125868e-13], ["'mixed heating grid' (megajoule, DK, None)", -1.2242178563219013e-12]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 5.909790486269445e-10], ["'wet wipe' (unit, GLO, None)", 3.380508351429573e-10], ["'autoclave' (unit, DK, None)", 3.353596730522636e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 1.1820927462531156e-10], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -2.0191299284022773e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0904578698206744e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.6074168330418957e-13], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.702563721644977e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.222688418602571e-11], ["'steel recycling' (kilogram, RER, None)", 2.020309152754866e-13], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.9730963868848443e-12], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.048368281860479e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3273420835131745e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.500147032964412e-10], ["'mechanical disinfection' (unit, DK, None)", 6.930425682586758e-10], ["'autoclave' (unit, DK, None)", 1.8631092947347977e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.007560359773257e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.1969597895217875e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1809157396413488e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6899073568163025e-13], ["'steel recycling' (kilogram, RER, None)", 2.020309152754866e-13], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.9730963868848443e-12], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.328074530562928e-13], ["'mixed heating grid' (megajoule, DK, None)", -6.121089281609506e-13]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 3.500147032964412e-10], ["'wet wipe' (unit, GLO, None)", 3.380508351429573e-10], ["'autoclave' (unit, DK, None)", 1.8631092947347977e-09], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 7.007560359773257e-11], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.1969597895217875e-10], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.1809157396413488e-12], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 2.6899073568163025e-13], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.702563721644977e-12], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.222688418602571e-11], ["'steel recycling' (kilogram, RER, None)", 2.020309152754866e-13], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -1.9730963868848443e-12], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -5.0250875365548434e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.3212209942315648e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.961592806133371e-07], ["'autoclave' (unit, DK, None)", 5.036564292531851e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.9997296471840744e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 3.614965908890143e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.51800670551615e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.5326733200986972e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.596602205527115e-07], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -2.7575534121691846e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 1.165894761720219e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 1.9524012864453665e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 4.436020034074675e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 4.961592806133371e-07], ["'autoclave' (unit, DK, None)", 5.036564292531851e-07], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.9904748126174696e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.411082766755169e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -6.345337803677433e-08], ["'mixed heating grid' (megajoule, DK, None)", -1.0217822133991314e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 5.090452966208579e-10]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.4198968280371255e-06], ["'autoclave' (unit, DK, None)", 1.0073128585063698e-06], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 8.494561524268921e-08], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.0911227376374836e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.723049114889744e-08], ["'mixed heating grid' (megajoule, DK, None)", -4.384893661916742e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -7.308317465887575e-07], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -8.299432599732496e-08], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 3.512117645347014e-08], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 5.49972193364892e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2620196236180798e-09]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 1.4198968280371255e-06], ["'autoclave' (unit, DK, None)", 1.0073128585063698e-06], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.606971303147803e-07], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 7.26309664263249e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.8153660765931641e-07], ["'mixed heating grid' (megajoule, DK, None)", -2.923262441277828e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.2620196236180798e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.864716522275162e-07], ["'mechanical disinfection' (unit, DK, None)", 5.68237473166653e-07], ["'autoclave' (unit, DK, None)", 1.4102380019089186e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.7552410325653466e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.295068438612883e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.556767888891517e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.296480506766244e-11], ["'steel recycling' (kilogram, RER, None)", 2.2824637656293047e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.6141435456743537e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.5978357641284472e-10], ["'mixed heating grid' (megajoule, DK, None)", -2.572975961615881e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 3.864716522275162e-07], ["'wet wipe' (unit, GLO, None)", 8.635586268007549e-08], ["'autoclave' (unit, DK, None)", 1.4102380019089186e-06], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 3.7552410325653466e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -1.295068438612883e-07], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.556767888891517e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 8.296480506766244e-11], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2225712980616355e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.591911592905751e-08], ["'steel recycling' (kilogram, RER, None)", 2.2824637656293047e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.6141435456743537e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7324323782060928e-08], ["'mixed heating grid' (megajoule, DK, None)", -2.7897152913464157e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.300844223657129e-07], ["'mechanical disinfection' (unit, DK, None)", 2.841187365833265e-07], ["'autoclave' (unit, DK, None)", 7.834655566160658e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2261432772183004e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.677291212879028e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535777783034e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3883619663607132e-10], ["'steel recycling' (kilogram, RER, None)", 2.2824637656293047e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.6141435456743537e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -7.989178820642215e-11], ["'mixed heating grid' (megajoule, DK, None)", -1.2864879808079405e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 2.300844223657129e-07], ["'wet wipe' (unit, GLO, None)", 8.635586268007549e-08], ["'autoclave' (unit, DK, None)", 7.834655566160658e-07], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 2.2261432772183004e-08], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -7.677291212879028e-08], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.113535777783034e-10], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.3883619663607132e-10], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.2225712980616355e-09], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.591911592905751e-08], ["'steel recycling' (kilogram, RER, None)", 2.2824637656293047e-09], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.6141435456743537e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7244431993854486e-08], ["'mixed heating grid' (megajoule, DK, None)", -2.7768504115383357e-08]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05715518803091386], ["'autoclave' (unit, DK, None)", 0.010079048886912911], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.802579280385904e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 2.0932045943887528e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00022768808252552605], ["'mixed heating grid' (megajoule, DK, None)", -0.00047369364106555515], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04099956387738334], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.004088922635166517], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.00035742174975183323], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.006411173221009154], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 1.914235289131563e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H200' (unit, GLO, None)", 0.05715518803091386], ["'autoclave' (unit, DK, None)", 0.010079048886912911], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00011961040084803661], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.396109853321673e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0015179205501701736], ["'mixed heating grid' (megajoule, DK, None)", -0.0031579576071037014], ["'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)", 1.8964639143244e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.16350734906621575], ["'autoclave' (unit, DK, None)", 0.020158097773825812], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 5.104500205204943e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 6.318021206916511e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0006514030203747945], ["'mixed heating grid' (megajoule, DK, None)", -0.001355211327267615], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1153961234959465], ["'market for polyethylene, high density, granulate' (kilogram, GLO, None)", -0.012306466183510875], ["'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)", 0.001076690002691217], ["'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)", 0.018059642876082124], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.4458782434470736e-05]]</t>
+  </si>
+  <si>
+    <t>[["'H400' (unit, GLO, None)", 0.16350734906621575], ["'autoclave' (unit, DK, None)", 0.020158097773825812], ["'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 0.00033693070661418767], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.205612900652632e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.004342686802498634], ["'mixed heating grid' (megajoule, DK, None)", -0.009034742181784098], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.4458782434470736e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006473307901383342], ["'mechanical disinfection' (unit, DK, None)", 0.011363780505769602], ["'autoclave' (unit, DK, None)", 0.028221336883356152], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00046116208393189826], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018782280447424099], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.835056634456909e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.5801046072049173e-06], ["'steel recycling' (kilogram, RER, None)", 3.1503023466271207e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.0509444092706923e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.822314614616423e-06], ["'mixed heating grid' (megajoule, DK, None)", -7.95213393258186e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (large)' (unit, GLO, None)", 0.006473307901383342], ["'wet wipe' (unit, GLO, None)", 0.005317235802914153], ["'autoclave' (unit, DK, None)", 0.028221336883356152], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.00046116208393189826], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0018782280447424099], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 4.835056634456909e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 3.5801046072049173e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.956229755766603e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.217781700060562e-06], ["'steel recycling' (kilogram, RER, None)", 3.1503023466271207e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.0509444092706923e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00041442942677302036], ["'mixed heating grid' (megajoule, DK, None)", -0.0008621996459160932]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003806169849616399], ["'mechanical disinfection' (unit, DK, None)", 0.005681890252884801], ["'autoclave' (unit, DK, None)", 0.01567852049075342], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002733813526083195], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011134317873678138], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.670113268913817e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.991071838452899e-06], ["'steel recycling' (kilogram, RER, None)", 3.1503023466271207e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.0509444092706923e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.9111573073082063e-06], ["'mixed heating grid' (megajoule, DK, None)", -3.97606696629093e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox (small)' (unit, GLO, None)", 0.003806169849616399], ["'wet wipe' (unit, GLO, None)", 0.005317235802914153], ["'autoclave' (unit, DK, None)", 0.01567852049075342], ["'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)", 0.0002733813526083195], ["'market for aluminium, cast alloy' (kilogram, GLO, None)", -0.0011134317873678138], ["'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.670113268913817e-07], ["'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)", 5.991071838452899e-06], ["'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)", 1.956229755766603e-05], ["'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)", 9.217781700060562e-06], ["'steel recycling' (kilogram, RER, None)", 3.1503023466271207e-06], ["'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)", -3.0509444092706923e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004125182694657117], ["'mixed heating grid' (megajoule, DK, None)", -0.0008582235789498021]]</t>
   </si>
 </sst>
 </file>
